--- a/data chart/Herm_GF4.xlsx
+++ b/data chart/Herm_GF4.xlsx
@@ -2,31 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="890" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Herm(8,4)" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure_BER" sheetId="2" r:id="rId2"/>
-    <sheet name="Figure_FER" sheetId="7" r:id="rId3"/>
-    <sheet name="Herm(8,4)_KV" sheetId="13" r:id="rId4"/>
-    <sheet name="Herm(8,4)_KV_FER" sheetId="15" r:id="rId5"/>
-    <sheet name="Herm(8,4)_KV_BER" sheetId="14" r:id="rId6"/>
-    <sheet name="Herm(8,4)_LCC" sheetId="8" r:id="rId7"/>
-    <sheet name="Figure_BER_last" sheetId="12" r:id="rId8"/>
-    <sheet name="Figure_BER_first" sheetId="10" r:id="rId9"/>
-    <sheet name="Figure_FER " sheetId="9" r:id="rId10"/>
+    <sheet name="Herm(8,4)" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Figure_BER" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Figure_FER" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Herm(8,4)_KV" sheetId="13" state="hidden" r:id="rId4"/>
+    <sheet name="Herm(8,4)_KV_FER" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="Herm(8,4)_KV_BER" sheetId="14" state="hidden" r:id="rId6"/>
+    <sheet name="Herm(8,4)_Th_LCC" sheetId="16" r:id="rId7"/>
+    <sheet name="Figure_BER_Herm(8,4)" sheetId="12" r:id="rId8"/>
+    <sheet name="Herm(8,4)_LCC" sheetId="8" r:id="rId9"/>
+    <sheet name="Figure_BER_first(2015.8)" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Figure_FER (2015.7)" sheetId="9" state="hidden" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>SNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,12 +244,143 @@
     <t>KV(l=5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>new_eta=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Herm(8,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF-LCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eta=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Herm(8,4)</t>
+  </si>
+  <si>
+    <t>Herm(8,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KV-LCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>BER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_eta=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW-LCC,ηmax=4, ηmin=1</t>
+  </si>
+  <si>
+    <t>η=2, m_R=2, m_η=1, lm=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η=2, m_R=2, m_η=2, lm=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>η=2, m_R=2, m_η=1, lm=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW-LCC,ηmax=4, ηmin=2</t>
+  </si>
+  <si>
+    <t>NEW-LCC,ηmax=5, ηmin=1</t>
+  </si>
+  <si>
+    <t>NEW-LCC,ηmax=5, ηmin=2</t>
+  </si>
+  <si>
+    <t>[1,5]th=0.1</t>
+  </si>
+  <si>
+    <t>[1,5]th=0.2</t>
+  </si>
+  <si>
+    <t>[1,5]th=0.3</t>
+  </si>
+  <si>
+    <t>[1,5]th=0.4</t>
+  </si>
+  <si>
+    <t>[1,5]th=0.5</t>
+  </si>
+  <si>
+    <t>[1,4]th=0.1</t>
+  </si>
+  <si>
+    <t>[1,4]th=0.2</t>
+  </si>
+  <si>
+    <t>[1,4]th=0.3</t>
+  </si>
+  <si>
+    <t>[1,4]th=0.4</t>
+  </si>
+  <si>
+    <t>[1,4]th=0.5</t>
+  </si>
+  <si>
+    <t>[2,4]th=0.2</t>
+  </si>
+  <si>
+    <t>[2,4]th=0.1</t>
+  </si>
+  <si>
+    <t>[2,4]th=0.3</t>
+  </si>
+  <si>
+    <t>[2,4]th=0.4</t>
+  </si>
+  <si>
+    <t>[2,5]th=0.1</t>
+  </si>
+  <si>
+    <t>[2,5]th=0.2</t>
+  </si>
+  <si>
+    <t>[2,5]th=0.3</t>
+  </si>
+  <si>
+    <t>[2,5]th=0.4</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>[2,4]th=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +417,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -304,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -312,8 +468,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -321,8 +529,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,12 +545,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="差_Herm(8,4)_LCC" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Herm(8,4)_LCC" xfId="4"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="好_Herm(8,4)_LCC" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -970,8 +1258,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1092262288"/>
-        <c:axId val="-1092267728"/>
+        <c:axId val="1826359008"/>
+        <c:axId val="1826352480"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1810,7 +2098,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1092262288"/>
+        <c:axId val="1826359008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1922,13 +2210,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1092267728"/>
+        <c:crossAx val="1826352480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1092267728"/>
+        <c:axId val="1826352480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2055,7 +2343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1092262288"/>
+        <c:crossAx val="1826359008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2789,8 +3077,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1092265008"/>
-        <c:axId val="-1092264464"/>
+        <c:axId val="1826362816"/>
+        <c:axId val="1826360640"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3490,7 +3778,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1092265008"/>
+        <c:axId val="1826362816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -3536,7 +3824,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3602,13 +3889,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1092264464"/>
+        <c:crossAx val="1826360640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1092264464"/>
+        <c:axId val="1826360640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3670,7 +3957,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3735,7 +4021,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1092265008"/>
+        <c:crossAx val="1826362816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4604,8 +4890,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1139613824"/>
-        <c:axId val="-1139612736"/>
+        <c:axId val="1826361184"/>
+        <c:axId val="1826361728"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -4745,7 +5031,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Herm(8,4)_KV'!$H$3</c15:sqref>
@@ -4785,7 +5071,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Herm(8,4)_KV'!$G$4:$G$13</c15:sqref>
@@ -4830,7 +5116,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Herm(8,4)_KV'!$H$4:$H$13</c15:sqref>
@@ -4874,7 +5160,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1139613824"/>
+        <c:axId val="1826361184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -4991,13 +5277,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1139612736"/>
+        <c:crossAx val="1826361728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1139612736"/>
+        <c:axId val="1826361728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5127,7 +5413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1139613824"/>
+        <c:crossAx val="1826361184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5802,12 +6088,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1139605120"/>
-        <c:axId val="-1139599680"/>
+        <c:axId val="1826362272"/>
+        <c:axId val="1826354656"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1139605120"/>
+        <c:axId val="1826362272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5924,13 +6210,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1139599680"/>
+        <c:crossAx val="1826354656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1139599680"/>
+        <c:axId val="1826354656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6060,7 +6346,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1139605120"/>
+        <c:crossAx val="1826362272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6228,8 +6514,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.5762592112014657E-2"/>
-          <c:y val="1.671891327063741E-2"/>
+          <c:x val="6.3557841479265964E-2"/>
+          <c:y val="1.2535182779149657E-2"/>
           <c:w val="0.84104385109486701"/>
           <c:h val="0.88421461423905079"/>
         </c:manualLayout>
@@ -6237,296 +6523,6 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Herm(8,4)_LCC'!$L$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sakata</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$K$24:$K$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$L$24:$L$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.26094889999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2433979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22596150000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17919299999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13335559999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1092233</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2075469999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3805799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1670879999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.633333E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.891047E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.93848E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.1422699999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2988899999999994E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Herm(8,4)_LCC'!$M$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>τ=2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$A$24:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$M$44:$M$57</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.23818600000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21965319999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1898522</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12671569999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8073900000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3432840000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6069650000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2574919999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7773200000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9477679999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1473750000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5765080000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.927504E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.28853E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="2"/>
@@ -6544,22 +6540,21 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="dash"/>
+            <c:size val="8"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6686,22 +6681,21 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6828,22 +6822,21 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6951,15 +6944,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
+          <c:idx val="5"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Herm(8,4)_LCC'!$D$23</c:f>
+              <c:f>'Herm(8,4)_LCC'!$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LCC_eta=3</c:v>
+                  <c:v>new_eta=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6967,7 +6960,7 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="lgDash"/>
               <a:round/>
@@ -6975,15 +6968,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6991,7 +6982,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$A$24:$A$37</c:f>
+              <c:f>'Herm(8,4)_LCC'!$G$44:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7032,61 +7023,61 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$D$24:$D$38</c:f>
+              <c:f>'Herm(8,4)_LCC'!$H$44:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.33399210000000001</c:v>
+                  <c:v>0.27649459999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34350000000000003</c:v>
+                  <c:v>0.24222640000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28556029999999999</c:v>
+                  <c:v>0.20406460000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22123290000000001</c:v>
+                  <c:v>0.16981589999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17446809999999999</c:v>
+                  <c:v>0.1291031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12509890000000001</c:v>
+                  <c:v>9.8192769999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9308249999999997E-2</c:v>
+                  <c:v>5.762217E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8274009999999997E-2</c:v>
+                  <c:v>2.8760049999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6094310000000001E-2</c:v>
+                  <c:v>1.230679E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3045710000000001E-3</c:v>
+                  <c:v>3.7797759999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1307010000000002E-4</c:v>
+                  <c:v>7.4429270000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2623929999999995E-5</c:v>
+                  <c:v>1.016885E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8055640000000001E-6</c:v>
+                  <c:v>2.886763E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2499999999999999E-7</c:v>
+                  <c:v>6.8800269999999999E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,15 +7085,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="6"/>
+          <c:idx val="22"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Herm(8,4)_LCC'!$C$23</c:f>
+              <c:f>'Herm(8,4)_Th_LCC'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LCC_eta=1</c:v>
+                  <c:v>[1,4]th=0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7110,23 +7101,181 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.27420339999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2221774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18693589999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14904580000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1054813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6309930000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4804109999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.829795E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5271890000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1090599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1315869999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3266809999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5216889999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3018979999999999E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[1,4]th=0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -7134,10 +7283,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$A$24:$A$38</c:f>
+              <c:f>'Herm(8,4)_Th_LCC'!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>-4</c:v>
                 </c:pt>
@@ -7179,65 +7328,1338 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Herm(8,4)_LCC'!$C$24:$C$38</c:f>
+              <c:f>'Herm(8,4)_Th_LCC'!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.3541667</c:v>
+                  <c:v>0.27420339999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34048909999999999</c:v>
+                  <c:v>0.2221774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29985410000000001</c:v>
+                  <c:v>0.1865975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25869209999999998</c:v>
+                  <c:v>0.1497696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21504239999999999</c:v>
+                  <c:v>0.10552830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1849459</c:v>
+                  <c:v>6.8165470000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.116573</c:v>
+                  <c:v>3.9045070000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7636989999999994E-2</c:v>
+                  <c:v>2.1807549999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9631109999999997E-2</c:v>
+                  <c:v>1.0173069999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5696410000000001E-2</c:v>
+                  <c:v>3.3123010000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8082940000000003E-3</c:v>
+                  <c:v>1.0284599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0510999999999999E-3</c:v>
+                  <c:v>2.102974E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.327043E-4</c:v>
+                  <c:v>2.7802569999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5604869999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1931379999999999E-7</c:v>
+                  <c:v>2.0515190000000001E-6</c:v>
                 </c:pt>
               </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[1,4]th=0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.27420339999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2217742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1864865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15268989999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1085526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0404560000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5755780000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5218230000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2634859999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7021249999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4314950000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7695140000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7535839999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6511919999999999E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[1,4]th=0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.27540019999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2234477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18959110000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1513051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11711779999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6013510000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2026330000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0105630000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5380370000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8063730000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7105079999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.387644E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5340970000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1039870000000001E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[1,5]th=0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$A$21:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$B$21:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26815480000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21568880000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1783563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1465149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6445500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1402129999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3653849999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5687989999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9111559999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0656379999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0832270000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2996399999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.52055E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.302392E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[1,5]th=0.2</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$A$21:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$C$21:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26815480000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21618850000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17841699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14604230000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10011340000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3885159999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7521079999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1638330000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8290879999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1931770000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0160869999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.115722E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7802569999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9795439999999998E-6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[1,5]th=0.3</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$A$21:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$D$21:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26815480000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2161082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17963290000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1480312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1059933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9756189999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6462660000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4745389999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2394290000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6735930000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4315479999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.77819E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7535839999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.524312E-6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[2,4]th=0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$H$3:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$I$3:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.27420339999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2221774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18693589999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14904580000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1054813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6309930000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4875429999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.833249E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.453192E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8972380000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5162810000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1732789999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5335870000000004E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[2,4]th=0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$H$3:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$J$3:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.27420339999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2221774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1865975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14973159999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1045932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8501809999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8677379999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.071247E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0298840000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6006309999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2064360000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8938300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8868409999999998E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[2,5]th=0.1</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$H$21:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$I$21:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26815480000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21568880000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1783563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1465149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6445500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1402129999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3692960000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5668370000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7564060000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.87094E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.461353E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1160040000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5191389999999997E-6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$J$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[2,5]th=0.2</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$H$21:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Herm(8,4)_Th_LCC'!$J$21:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26815480000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21618850000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17841699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14619099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1003024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3542360000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7453180000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.071282E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6784489999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.509776E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2764519999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8796350000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8871160000000004E-6</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -7250,12 +8672,673 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1437236672"/>
-        <c:axId val="-1437227968"/>
-        <c:extLst/>
+        <c:axId val="1826353568"/>
+        <c:axId val="2011757376"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$L$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>sakata</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="10"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$K$24:$K$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$L$24:$L$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>0.26094889999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2433979</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.22596150000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.17919299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.13335559999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.1092233</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.2075469999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.3805799999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.1670879999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.633333E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.891047E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.93848E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.1422699999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8.2988899999999994E-5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$M$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>τ=2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="8"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$A$24:$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$M$44:$M$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>0.23818600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.21965319999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1898522</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.12671569999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.8073900000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.3432840000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.6069650000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2574919999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.7773200000000008E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.9477679999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.1473750000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5765080000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.927504E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.28853E-6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$D$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>LCC_eta=3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:prstDash val="lgDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$A$24:$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$D$24:$D$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>0.33399210000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.34350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.28556029999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.22123290000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.17446809999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.12509890000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.9308249999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.8274009999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.6094310000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.3045710000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.1307010000000002E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.2623929999999995E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.8055640000000001E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.2499999999999999E-7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$C$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>LCC_eta=1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="lgDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$A$24:$A$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Herm(8,4)_LCC'!$C$24:$C$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>0.3541667</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.34048909999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.29985410000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.25869209999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.21504239999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.1849459</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.116573</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.7636989999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.9631109999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.5696410000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.8082940000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.0510999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.327043E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8.5604869999999999E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.1931379999999999E-7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1437236672"/>
+        <c:axId val="1826353568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7367,18 +9450,18 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1437227968"/>
+        <c:crossAx val="2011757376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1437227968"/>
+        <c:axId val="2011757376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="1.0000000000000005E-7"/>
+          <c:min val="1.0000000000000004E-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7499,7 +9582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1437236672"/>
+        <c:crossAx val="1826353568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7519,10 +9602,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.4882485053277095E-2"/>
-          <c:y val="0.6157195537189647"/>
-          <c:w val="0.10714228119083534"/>
-          <c:h val="0.24710269154849029"/>
+          <c:x val="6.8978561933160598E-2"/>
+          <c:y val="0.31043754551088071"/>
+          <c:w val="0.10713228365045058"/>
+          <c:h val="0.52841276129204051"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8981,12 +11064,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1437229600"/>
-        <c:axId val="-1437235040"/>
+        <c:axId val="2011757920"/>
+        <c:axId val="2011751936"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1437229600"/>
+        <c:axId val="2011757920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -9098,13 +11181,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1437235040"/>
+        <c:crossAx val="2011751936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1437235040"/>
+        <c:axId val="2011751936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9160,7 +11243,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                  <a:t>FER</a:t>
+                  <a:t>BER</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
               </a:p>
@@ -9231,7 +11314,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1437229600"/>
+        <c:crossAx val="2011757920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10380,8 +12463,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1133729376"/>
-        <c:axId val="-1133727744"/>
+        <c:axId val="2011762272"/>
+        <c:axId val="2011748128"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -10714,7 +12797,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1133729376"/>
+        <c:axId val="2011762272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -10826,13 +12909,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133727744"/>
+        <c:crossAx val="2011748128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1133727744"/>
+        <c:axId val="2011748128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10959,7 +13042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133729376"/>
+        <c:crossAx val="2011762272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14851,7 +16934,7 @@
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="图表2"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
@@ -14863,7 +16946,19 @@
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="图表3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="图表5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14873,23 +16968,11 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="图表6"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14899,9 +16982,9 @@
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="图表10"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14911,7 +16994,7 @@
 
 <file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="图表12"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
@@ -14923,7 +17006,7 @@
 
 <file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="图表13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14991,7 +17074,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -15018,7 +17101,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308224" cy="6082862"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -15045,7 +17128,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
@@ -15126,22 +17209,30 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet2"/>
-      <sheetName val="FigureDecoAl(GF8)"/>
-      <sheetName val="FigureDecoAl(GF16)"/>
-      <sheetName val="FigureDecoAl(GF64)"/>
+      <sheetName val="Channel Information"/>
+      <sheetName val="Complexity_DATA"/>
+      <sheetName val="Complexity_DIAG"/>
+      <sheetName val="Herm(64,49)_Th_LCC"/>
+      <sheetName val="Figure_BER_Herm(64,49)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="2">
           <cell r="B2" t="str">
-            <v>Sakata</v>
+            <v>LCC(η=1)_1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>LCC(η=2)_1</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>LCC(η=3)_1</v>
           </cell>
           <cell r="E2" t="str">
-            <v>GS(m=1) Tm/n</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>GS(optimal) Tm/n</v>
+            <v>[1,5]th=0.35_1</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>[1,5]th=0.25_1</v>
           </cell>
         </row>
         <row r="3">
@@ -15149,960 +17240,2319 @@
             <v>0</v>
           </cell>
           <cell r="B3">
-            <v>0.4375</v>
+            <v>93676.78</v>
           </cell>
           <cell r="C3">
-            <v>0.125</v>
-          </cell>
-          <cell r="G3">
-            <v>0.625</v>
+            <v>98856.19</v>
+          </cell>
+          <cell r="D3">
+            <v>112095.83</v>
+          </cell>
+          <cell r="E3">
+            <v>201650.2</v>
+          </cell>
+          <cell r="F3">
+            <v>201650.2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>0.05</v>
+            <v>1</v>
           </cell>
           <cell r="B4">
-            <v>0.41249999999999998</v>
+            <v>93724.89</v>
           </cell>
           <cell r="C4">
-            <v>0.25</v>
+            <v>98865.96</v>
+          </cell>
+          <cell r="D4">
+            <v>112095.83</v>
           </cell>
           <cell r="E4">
-            <v>0.25</v>
-          </cell>
-          <cell r="G4">
-            <v>0.375</v>
+            <v>201246.33</v>
+          </cell>
+          <cell r="F4">
+            <v>201246.33</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>0.1</v>
+            <v>2</v>
           </cell>
           <cell r="B5">
-            <v>0.38750000000000001</v>
+            <v>93732.69</v>
           </cell>
           <cell r="C5">
-            <v>0.375</v>
+            <v>98916.04</v>
+          </cell>
+          <cell r="D5">
+            <v>112006.92</v>
           </cell>
           <cell r="E5">
-            <v>0.125</v>
-          </cell>
-          <cell r="G5">
-            <v>0.375</v>
+            <v>201725.05</v>
+          </cell>
+          <cell r="F5">
+            <v>201725.05</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>0.15</v>
+            <v>3</v>
           </cell>
           <cell r="B6">
-            <v>0.36249999999999999</v>
+            <v>93531.76</v>
           </cell>
           <cell r="C6">
-            <v>0.5</v>
+            <v>98671.6</v>
+          </cell>
+          <cell r="D6">
+            <v>111602.26</v>
           </cell>
           <cell r="E6">
-            <v>0</v>
-          </cell>
-          <cell r="G6">
-            <v>0.25</v>
+            <v>200546.47</v>
+          </cell>
+          <cell r="F6">
+            <v>200546.47</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.2</v>
+            <v>4</v>
           </cell>
           <cell r="B7">
-            <v>0.33750000000000002</v>
+            <v>92498.6</v>
           </cell>
           <cell r="C7">
-            <v>0.625</v>
+            <v>97298.47</v>
+          </cell>
+          <cell r="D7">
+            <v>109144.92</v>
           </cell>
           <cell r="E7">
-            <v>0</v>
-          </cell>
-          <cell r="G7">
-            <v>0.125</v>
+            <v>187809.58</v>
+          </cell>
+          <cell r="F7">
+            <v>192831.46</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>0.25</v>
+            <v>5</v>
           </cell>
           <cell r="B8">
-            <v>0.3125</v>
+            <v>88893.89</v>
           </cell>
           <cell r="C8">
-            <v>0.75</v>
+            <v>93102.080000000002</v>
+          </cell>
+          <cell r="D8">
+            <v>103571.44</v>
           </cell>
           <cell r="E8">
-            <v>0</v>
-          </cell>
-          <cell r="G8">
-            <v>0.125</v>
+            <v>139830.12</v>
+          </cell>
+          <cell r="F8">
+            <v>160141.51</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>0.3</v>
+            <v>6</v>
           </cell>
           <cell r="B9">
-            <v>0.28749999999999998</v>
+            <v>85764.43</v>
           </cell>
           <cell r="C9">
-            <v>0.875</v>
+            <v>89240.86</v>
+          </cell>
+          <cell r="D9">
+            <v>98395.91</v>
           </cell>
           <cell r="E9">
-            <v>0</v>
-          </cell>
-          <cell r="G9">
-            <v>0</v>
+            <v>96787.59</v>
+          </cell>
+          <cell r="F9">
+            <v>106299.77</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>0.35</v>
+            <v>7</v>
           </cell>
           <cell r="B10">
-            <v>0.26250000000000001</v>
+            <v>84132.43</v>
           </cell>
           <cell r="C10">
-            <v>1</v>
+            <v>87321.17</v>
+          </cell>
+          <cell r="D10">
+            <v>95781.64</v>
           </cell>
           <cell r="E10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>0</v>
+            <v>85359.18</v>
+          </cell>
+          <cell r="F10">
+            <v>86721.47</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>0.4</v>
+            <v>8</v>
           </cell>
           <cell r="B11">
-            <v>0.23749999999999999</v>
+            <v>83605.929999999993</v>
+          </cell>
+          <cell r="C11">
+            <v>86865.05</v>
+          </cell>
+          <cell r="D11">
+            <v>95020.54</v>
+          </cell>
+          <cell r="E11">
+            <v>83759.11</v>
+          </cell>
+          <cell r="F11">
+            <v>83862.37</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>0.45</v>
+            <v>9</v>
           </cell>
           <cell r="B12">
-            <v>0.21249999999999999</v>
+            <v>83563.039999999994</v>
+          </cell>
+          <cell r="C12">
+            <v>86828.88</v>
+          </cell>
+          <cell r="D12">
+            <v>95046.399999999994</v>
+          </cell>
+          <cell r="E12">
+            <v>83562.429999999993</v>
+          </cell>
+          <cell r="F12">
+            <v>83565.84</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>LCC(η=1)_2</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>LCC(η=2)_2</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>LCC(η=3)_2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>0</v>
+          </cell>
+          <cell r="B19">
+            <v>93840.05</v>
+          </cell>
+          <cell r="C19">
+            <v>99182.68</v>
+          </cell>
+          <cell r="D19">
+            <v>112586.45</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>1</v>
+          </cell>
+          <cell r="B20">
+            <v>93870.35</v>
+          </cell>
+          <cell r="C20">
+            <v>99156.97</v>
+          </cell>
+          <cell r="D20">
+            <v>112531.37</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2</v>
+          </cell>
+          <cell r="B21">
+            <v>93966.22</v>
+          </cell>
+          <cell r="C21">
+            <v>99364.14</v>
+          </cell>
+          <cell r="D21">
+            <v>112805.55</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>3</v>
+          </cell>
+          <cell r="B22">
+            <v>93943.76</v>
+          </cell>
+          <cell r="C22">
+            <v>99468.45</v>
+          </cell>
+          <cell r="D22">
+            <v>113279.47</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>4</v>
+          </cell>
+          <cell r="B23">
+            <v>95258.28</v>
+          </cell>
+          <cell r="C23">
+            <v>102485.24</v>
+          </cell>
+          <cell r="D23">
+            <v>119778.39</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>5</v>
+          </cell>
+          <cell r="B24">
+            <v>97027.14</v>
+          </cell>
+          <cell r="C24">
+            <v>108895.23</v>
+          </cell>
+          <cell r="D24">
+            <v>134177.66</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>6</v>
+          </cell>
+          <cell r="B25">
+            <v>95721.15</v>
+          </cell>
+          <cell r="C25">
+            <v>109227.19</v>
+          </cell>
+          <cell r="D25">
+            <v>138487.65</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>7</v>
+          </cell>
+          <cell r="B26">
+            <v>93858.02</v>
+          </cell>
+          <cell r="C26">
+            <v>107202.63</v>
+          </cell>
+          <cell r="D26">
+            <v>136462.24</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>8</v>
+          </cell>
+          <cell r="B27">
+            <v>93114</v>
+          </cell>
+          <cell r="C27">
+            <v>106490.51</v>
+          </cell>
+          <cell r="D27">
+            <v>135587.12</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>9</v>
+          </cell>
+          <cell r="B28">
+            <v>93020.18</v>
+          </cell>
+          <cell r="C28">
+            <v>106406.81</v>
+          </cell>
+          <cell r="D28">
+            <v>135506.01999999999</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>LCC(η=1)_3</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>LCC(η=2)_3</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>LCC(η=3)_3</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>LCC(η=4)_3</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>[1,5]th=0.35_3</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>[1,5]th=0.25_3</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>[1,5]th=0.2_3</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>[1,4]th=0.1_3</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>[1,3]th=0.1_3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>0</v>
+          </cell>
+          <cell r="B33">
+            <v>93840.05</v>
+          </cell>
+          <cell r="C33">
+            <v>99182.68</v>
+          </cell>
+          <cell r="D33">
+            <v>112586.45</v>
+          </cell>
+          <cell r="E33">
+            <v>142218</v>
+          </cell>
+          <cell r="F33">
+            <v>204229.51</v>
+          </cell>
+          <cell r="G33">
+            <v>204229.51</v>
+          </cell>
+          <cell r="H33">
+            <v>204229.51</v>
+          </cell>
+          <cell r="I33">
+            <v>142218</v>
+          </cell>
+          <cell r="J33">
+            <v>112586.45</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>1</v>
+          </cell>
+          <cell r="B34">
+            <v>93870.35</v>
+          </cell>
+          <cell r="C34">
+            <v>99156.97</v>
+          </cell>
+          <cell r="D34">
+            <v>112531.37</v>
+          </cell>
+          <cell r="E34">
+            <v>142085.07</v>
+          </cell>
+          <cell r="F34">
+            <v>204229.51</v>
+          </cell>
+          <cell r="G34">
+            <v>203831.67</v>
+          </cell>
+          <cell r="H34">
+            <v>203831.67</v>
+          </cell>
+          <cell r="I34">
+            <v>142085.07</v>
+          </cell>
+          <cell r="J34">
+            <v>112531.37</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2</v>
+          </cell>
+          <cell r="B35">
+            <v>93986.39</v>
+          </cell>
+          <cell r="C35">
+            <v>99384.3</v>
+          </cell>
+          <cell r="D35">
+            <v>112825.72</v>
+          </cell>
+          <cell r="E35">
+            <v>142493.97</v>
+          </cell>
+          <cell r="F35">
+            <v>205398.29</v>
+          </cell>
+          <cell r="G35">
+            <v>204607.9</v>
+          </cell>
+          <cell r="H35">
+            <v>204607.9</v>
+          </cell>
+          <cell r="I35">
+            <v>142493.97</v>
+          </cell>
+          <cell r="J35">
+            <v>112825.72</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>3</v>
+          </cell>
+          <cell r="B36">
+            <v>94235.93</v>
+          </cell>
+          <cell r="C36">
+            <v>100008.81</v>
+          </cell>
+          <cell r="D36">
+            <v>114347.05</v>
+          </cell>
+          <cell r="E36">
+            <v>145290.76999999999</v>
+          </cell>
+          <cell r="F36">
+            <v>210619.89</v>
+          </cell>
+          <cell r="G36">
+            <v>209646.86</v>
+          </cell>
+          <cell r="H36">
+            <v>209646.86</v>
+          </cell>
+          <cell r="I36">
+            <v>145290.76999999999</v>
+          </cell>
+          <cell r="J36">
+            <v>114347.05</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>4</v>
+          </cell>
+          <cell r="B37">
+            <v>98196.51</v>
+          </cell>
+          <cell r="C37">
+            <v>107916.52</v>
+          </cell>
+          <cell r="D37">
+            <v>130601.35</v>
+          </cell>
+          <cell r="E37">
+            <v>176747.11</v>
+          </cell>
+          <cell r="F37">
+            <v>257288.12</v>
+          </cell>
+          <cell r="G37">
+            <v>265161.21000000002</v>
+          </cell>
+          <cell r="H37">
+            <v>267635.08</v>
+          </cell>
+          <cell r="I37">
+            <v>176747.11</v>
+          </cell>
+          <cell r="J37">
+            <v>130601.35</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>5</v>
+          </cell>
+          <cell r="B38">
+            <v>106354.26</v>
+          </cell>
+          <cell r="C38">
+            <v>126895.87</v>
+          </cell>
+          <cell r="D38">
+            <v>168614.07</v>
+          </cell>
+          <cell r="E38">
+            <v>249565.86</v>
+          </cell>
+          <cell r="F38">
+            <v>270448.5</v>
+          </cell>
+          <cell r="G38">
+            <v>334390.38</v>
+          </cell>
+          <cell r="H38">
+            <v>365176.55</v>
+          </cell>
+          <cell r="I38">
+            <v>249093.13</v>
+          </cell>
+          <cell r="J38">
+            <v>168614.07</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>6</v>
+          </cell>
+          <cell r="B39">
+            <v>107888.83</v>
+          </cell>
+          <cell r="C39">
+            <v>133371.26</v>
+          </cell>
+          <cell r="D39">
+            <v>186248.93</v>
+          </cell>
+          <cell r="E39">
+            <v>292120.46999999997</v>
+          </cell>
+          <cell r="F39">
+            <v>168941.74</v>
+          </cell>
+          <cell r="G39">
+            <v>211139.96</v>
+          </cell>
+          <cell r="H39">
+            <v>250328.44</v>
+          </cell>
+          <cell r="I39">
+            <v>258007.67999999999</v>
+          </cell>
+          <cell r="J39">
+            <v>185153.33</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>7</v>
+          </cell>
+          <cell r="B40">
+            <v>106395.75</v>
+          </cell>
+          <cell r="C40">
+            <v>132268.68</v>
+          </cell>
+          <cell r="D40">
+            <v>186559.84</v>
+          </cell>
+          <cell r="E40">
+            <v>298906.34999999998</v>
+          </cell>
+          <cell r="F40">
+            <v>115260.37</v>
+          </cell>
+          <cell r="G40">
+            <v>124155.92</v>
+          </cell>
+          <cell r="H40">
+            <v>132170.51999999999</v>
+          </cell>
+          <cell r="I40">
+            <v>161458.54999999999</v>
+          </cell>
+          <cell r="J40">
+            <v>160518.16</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>8</v>
+          </cell>
+          <cell r="B41">
+            <v>105658</v>
+          </cell>
+          <cell r="C41">
+            <v>131578.51</v>
+          </cell>
+          <cell r="D41">
+            <v>185759.98</v>
+          </cell>
+          <cell r="E41">
+            <v>298936.56</v>
+          </cell>
+          <cell r="F41">
+            <v>106591.36</v>
+          </cell>
+          <cell r="G41">
+            <v>107352.52</v>
+          </cell>
+          <cell r="H41">
+            <v>108156.36</v>
+          </cell>
+          <cell r="I41">
+            <v>111759.73</v>
+          </cell>
+          <cell r="J41">
+            <v>116873.95</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>9</v>
+          </cell>
+          <cell r="B42">
+            <v>105564.18</v>
+          </cell>
+          <cell r="C42">
+            <v>131494.81</v>
+          </cell>
+          <cell r="D42">
+            <v>185682.02</v>
+          </cell>
+          <cell r="E42">
+            <v>298978.64</v>
+          </cell>
+          <cell r="F42">
+            <v>105608.14</v>
+          </cell>
+          <cell r="G42">
+            <v>105645.67</v>
+          </cell>
+          <cell r="H42">
+            <v>105722.32</v>
+          </cell>
+          <cell r="I42">
+            <v>105937.28</v>
+          </cell>
+          <cell r="J42">
+            <v>106446.86</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>LCC(η=5)_3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>0</v>
+          </cell>
+          <cell r="B45">
+            <v>204229.51</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>1</v>
+          </cell>
+          <cell r="B46">
+            <v>203831.67</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>2</v>
+          </cell>
+          <cell r="B47">
+            <v>204607.9</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>3</v>
+          </cell>
+          <cell r="B48">
+            <v>209646.86</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>4</v>
+          </cell>
+          <cell r="B49">
+            <v>267883.65000000002</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>5</v>
+          </cell>
+          <cell r="B50">
+            <v>402786.85</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>6</v>
+          </cell>
+          <cell r="B51">
+            <v>495877.84</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>7</v>
+          </cell>
+          <cell r="B52">
+            <v>517844.26</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>8</v>
+          </cell>
+          <cell r="B53">
+            <v>520405.21</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>9</v>
+          </cell>
+          <cell r="B54">
+            <v>520850.13</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>[1,4]th=0.1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>[1,4]th=0.2</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>[2,4]th=0.1</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>[2,4]th=0.2</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>η=1</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>η=2</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>η=3</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>η=4</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>η=5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>-4</v>
+          </cell>
+          <cell r="B3">
+            <v>0.21585180000000001</v>
+          </cell>
+          <cell r="C3">
+            <v>0.21585180000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>-4</v>
+          </cell>
+          <cell r="I3">
+            <v>0.21585180000000001</v>
+          </cell>
+          <cell r="J3">
+            <v>0.21585180000000001</v>
+          </cell>
+          <cell r="O3">
+            <v>-4</v>
+          </cell>
+          <cell r="P3">
+            <v>0.215562</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.21571319999999999</v>
+          </cell>
+          <cell r="R3">
+            <v>-4</v>
+          </cell>
+          <cell r="S3">
+            <v>0.21585180000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>-3</v>
+          </cell>
+          <cell r="B4">
+            <v>0.19134319999999999</v>
+          </cell>
+          <cell r="C4">
+            <v>0.19134319999999999</v>
+          </cell>
+          <cell r="H4">
+            <v>-3</v>
+          </cell>
+          <cell r="I4">
+            <v>0.19134319999999999</v>
+          </cell>
+          <cell r="J4">
+            <v>0.19134319999999999</v>
+          </cell>
+          <cell r="O4">
+            <v>-3</v>
+          </cell>
+          <cell r="P4">
+            <v>0.1911794</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.1911794</v>
+          </cell>
+          <cell r="R4">
+            <v>-3</v>
+          </cell>
+          <cell r="S4">
+            <v>0.19134319999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>-2</v>
+          </cell>
+          <cell r="B5">
+            <v>0.16367190000000001</v>
+          </cell>
+          <cell r="C5">
+            <v>0.16367190000000001</v>
+          </cell>
+          <cell r="H5">
+            <v>-2</v>
+          </cell>
+          <cell r="I5">
+            <v>0.16367190000000001</v>
+          </cell>
+          <cell r="J5">
+            <v>0.16367190000000001</v>
+          </cell>
+          <cell r="O5">
+            <v>-2</v>
+          </cell>
+          <cell r="P5">
+            <v>0.16353329999999999</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.16353329999999999</v>
+          </cell>
+          <cell r="R5">
+            <v>-2</v>
+          </cell>
+          <cell r="S5">
+            <v>0.16353329999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>-1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.1341608</v>
+          </cell>
+          <cell r="C6">
+            <v>0.1341608</v>
+          </cell>
+          <cell r="H6">
+            <v>-1</v>
+          </cell>
+          <cell r="I6">
+            <v>0.1341608</v>
+          </cell>
+          <cell r="J6">
+            <v>0.1341608</v>
+          </cell>
+          <cell r="O6">
+            <v>-1</v>
+          </cell>
+          <cell r="P6">
+            <v>0.1341608</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.1341608</v>
+          </cell>
+          <cell r="R6">
+            <v>-1</v>
+          </cell>
+          <cell r="S6">
+            <v>0.1341608</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0</v>
+          </cell>
+          <cell r="B7">
+            <v>0.1093372</v>
+          </cell>
+          <cell r="C7">
+            <v>0.1093372</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0.1093372</v>
+          </cell>
+          <cell r="J7">
+            <v>0.1093372</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+          <cell r="P7">
+            <v>0.1093372</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.1093372</v>
+          </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+          <cell r="S7">
+            <v>0.1093372</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1</v>
+          </cell>
+          <cell r="B8">
+            <v>8.2812499999999997E-2</v>
+          </cell>
+          <cell r="C8">
+            <v>8.2812499999999997E-2</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>8.2812499999999997E-2</v>
+          </cell>
+          <cell r="J8">
+            <v>8.2812499999999997E-2</v>
+          </cell>
+          <cell r="O8">
+            <v>1</v>
+          </cell>
+          <cell r="P8">
+            <v>8.2636089999999995E-2</v>
+          </cell>
+          <cell r="Q8">
+            <v>8.2636089999999995E-2</v>
+          </cell>
+          <cell r="R8">
+            <v>1</v>
+          </cell>
+          <cell r="S8">
+            <v>8.2636089999999995E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1.5</v>
+          </cell>
+          <cell r="B9">
+            <v>7.0551150000000007E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>7.0551150000000007E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>1.5</v>
+          </cell>
+          <cell r="I9">
+            <v>7.0551150000000007E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>7.0551150000000007E-2</v>
+          </cell>
+          <cell r="O9">
+            <v>2</v>
+          </cell>
+          <cell r="P9">
+            <v>5.9160789999999998E-2</v>
+          </cell>
+          <cell r="Q9">
+            <v>5.9160789999999998E-2</v>
+          </cell>
+          <cell r="R9">
+            <v>2</v>
+          </cell>
+          <cell r="S9">
+            <v>5.9160789999999998E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2</v>
+          </cell>
+          <cell r="B10">
+            <v>5.9160789999999998E-2</v>
+          </cell>
+          <cell r="C10">
+            <v>5.9160789999999998E-2</v>
+          </cell>
+          <cell r="H10">
+            <v>2</v>
+          </cell>
+          <cell r="I10">
+            <v>5.9160789999999998E-2</v>
+          </cell>
+          <cell r="J10">
+            <v>5.9160789999999998E-2</v>
+          </cell>
+          <cell r="O10">
+            <v>3</v>
+          </cell>
+          <cell r="P10">
+            <v>3.9184570000000002E-2</v>
+          </cell>
+          <cell r="Q10">
+            <v>3.8894230000000002E-2</v>
+          </cell>
+          <cell r="R10">
+            <v>3</v>
+          </cell>
+          <cell r="S10">
+            <v>3.9122049999999998E-2</v>
+          </cell>
+          <cell r="T10">
+            <v>3</v>
+          </cell>
+          <cell r="U10">
+            <v>3.8499539999999999E-2</v>
+          </cell>
+          <cell r="V10">
+            <v>3.7864879999999997E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2.5</v>
+          </cell>
+          <cell r="B11">
+            <v>4.7875679999999997E-2</v>
+          </cell>
+          <cell r="C11">
+            <v>4.7875679999999997E-2</v>
+          </cell>
+          <cell r="H11">
+            <v>2.5</v>
+          </cell>
+          <cell r="I11">
+            <v>4.7875679999999997E-2</v>
+          </cell>
+          <cell r="J11">
+            <v>4.7875679999999997E-2</v>
+          </cell>
+          <cell r="O11">
+            <v>3.5</v>
+          </cell>
+          <cell r="P11">
+            <v>3.0541780000000001E-2</v>
+          </cell>
+          <cell r="Q11">
+            <v>2.9990960000000001E-2</v>
+          </cell>
+          <cell r="R11">
+            <v>3.5</v>
+          </cell>
+          <cell r="S11">
+            <v>2.8408180000000002E-2</v>
+          </cell>
+          <cell r="T11">
+            <v>3.5</v>
+          </cell>
+          <cell r="U11">
+            <v>2.6491810000000001E-2</v>
+          </cell>
+          <cell r="V11">
+            <v>2.551403E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>3</v>
+          </cell>
+          <cell r="B12">
+            <v>3.8036970000000003E-2</v>
+          </cell>
+          <cell r="C12">
+            <v>3.8036970000000003E-2</v>
+          </cell>
+          <cell r="H12">
+            <v>3</v>
+          </cell>
+          <cell r="I12">
+            <v>3.8036970000000003E-2</v>
+          </cell>
+          <cell r="J12">
+            <v>3.8036970000000003E-2</v>
+          </cell>
+          <cell r="O12">
+            <v>4</v>
+          </cell>
+          <cell r="P12">
+            <v>1.863163E-2</v>
+          </cell>
+          <cell r="Q12">
+            <v>1.7382459999999999E-2</v>
+          </cell>
+          <cell r="R12">
+            <v>4</v>
+          </cell>
+          <cell r="S12">
+            <v>1.592112E-2</v>
+          </cell>
+          <cell r="T12">
+            <v>4</v>
+          </cell>
+          <cell r="U12">
+            <v>1.6359780000000001E-2</v>
+          </cell>
+          <cell r="V12">
+            <v>1.461835E-2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>0.5</v>
+            <v>3.5</v>
           </cell>
           <cell r="B13">
-            <v>0.1875</v>
+            <v>2.8432530000000001E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>2.8432530000000001E-2</v>
+          </cell>
+          <cell r="H13">
+            <v>3.5</v>
+          </cell>
+          <cell r="I13">
+            <v>2.8432530000000001E-2</v>
+          </cell>
+          <cell r="J13">
+            <v>2.8432530000000001E-2</v>
+          </cell>
+          <cell r="O13">
+            <v>4.5</v>
+          </cell>
+          <cell r="P13">
+            <v>1.1976179999999999E-2</v>
+          </cell>
+          <cell r="Q13">
+            <v>9.8590550000000002E-3</v>
+          </cell>
+          <cell r="R13">
+            <v>4.5</v>
+          </cell>
+          <cell r="S13">
+            <v>8.3548310000000001E-3</v>
+          </cell>
+          <cell r="T13">
+            <v>4.5</v>
+          </cell>
+          <cell r="U13">
+            <v>6.2405999999999998E-3</v>
+          </cell>
+          <cell r="V13">
+            <v>5.0309660000000004E-3</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>0.55000000000000004</v>
+            <v>4</v>
           </cell>
           <cell r="B14">
-            <v>0.16250000000000001</v>
+            <v>1.506613E-2</v>
+          </cell>
+          <cell r="C14">
+            <v>1.506613E-2</v>
+          </cell>
+          <cell r="H14">
+            <v>4</v>
+          </cell>
+          <cell r="I14">
+            <v>1.506613E-2</v>
+          </cell>
+          <cell r="J14">
+            <v>1.506613E-2</v>
+          </cell>
+          <cell r="O14">
+            <v>5</v>
+          </cell>
+          <cell r="P14">
+            <v>4.7028089999999996E-3</v>
+          </cell>
+          <cell r="Q14">
+            <v>3.6092229999999999E-3</v>
+          </cell>
+          <cell r="R14">
+            <v>5</v>
+          </cell>
+          <cell r="S14">
+            <v>2.5756799999999999E-3</v>
+          </cell>
+          <cell r="T14">
+            <v>5</v>
+          </cell>
+          <cell r="U14">
+            <v>1.9192110000000001E-3</v>
+          </cell>
+          <cell r="V14">
+            <v>1.240105E-3</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>0.6</v>
+            <v>4.5</v>
           </cell>
           <cell r="B15">
-            <v>0.13750000000000001</v>
+            <v>6.1365600000000001E-3</v>
+          </cell>
+          <cell r="C15">
+            <v>6.1365600000000001E-3</v>
+          </cell>
+          <cell r="H15">
+            <v>4.5</v>
+          </cell>
+          <cell r="I15">
+            <v>6.1365600000000001E-3</v>
+          </cell>
+          <cell r="J15">
+            <v>6.1365600000000001E-3</v>
+          </cell>
+          <cell r="O15">
+            <v>5.5</v>
+          </cell>
+          <cell r="P15">
+            <v>1.417796E-3</v>
+          </cell>
+          <cell r="Q15">
+            <v>8.2032090000000002E-4</v>
+          </cell>
+          <cell r="R15">
+            <v>5.5</v>
+          </cell>
+          <cell r="S15">
+            <v>5.0288739999999996E-4</v>
+          </cell>
+          <cell r="T15">
+            <v>5.5</v>
+          </cell>
+          <cell r="U15">
+            <v>3.2999640000000002E-4</v>
+          </cell>
+          <cell r="V15">
+            <v>2.1195200000000001E-4</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.65</v>
+            <v>5</v>
           </cell>
           <cell r="B16">
-            <v>0.1125</v>
+            <v>1.8654469999999999E-3</v>
+          </cell>
+          <cell r="C16">
+            <v>1.878296E-3</v>
+          </cell>
+          <cell r="H16">
+            <v>5</v>
+          </cell>
+          <cell r="I16">
+            <v>1.8654469999999999E-3</v>
+          </cell>
+          <cell r="J16">
+            <v>1.878296E-3</v>
+          </cell>
+          <cell r="O16">
+            <v>6</v>
+          </cell>
+          <cell r="P16">
+            <v>3.1075580000000002E-4</v>
+          </cell>
+          <cell r="Q16">
+            <v>1.3621379999999999E-4</v>
+          </cell>
+          <cell r="R16">
+            <v>6</v>
+          </cell>
+          <cell r="S16">
+            <v>6.5258059999999995E-5</v>
+          </cell>
+          <cell r="T16">
+            <v>6</v>
+          </cell>
+          <cell r="U16">
+            <v>3.42352E-5</v>
+          </cell>
+          <cell r="V16">
+            <v>1.514938E-5</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>0.7</v>
+            <v>5.5</v>
           </cell>
           <cell r="B17">
-            <v>8.7499950000000007E-2</v>
+            <v>3.350281E-4</v>
+          </cell>
+          <cell r="C17">
+            <v>3.4142899999999997E-4</v>
+          </cell>
+          <cell r="H17">
+            <v>5.5</v>
+          </cell>
+          <cell r="I17">
+            <v>3.350281E-4</v>
+          </cell>
+          <cell r="J17">
+            <v>3.4142899999999997E-4</v>
+          </cell>
+          <cell r="O17">
+            <v>6.5</v>
+          </cell>
+          <cell r="P17">
+            <v>3.8101020000000001E-5</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.5201870000000001E-5</v>
+          </cell>
+          <cell r="R17">
+            <v>6.25</v>
+          </cell>
+          <cell r="S17">
+            <v>2.0687010000000001E-5</v>
+          </cell>
+          <cell r="T17">
+            <v>6.25</v>
+          </cell>
+          <cell r="V17">
+            <v>3.7543289999999999E-6</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>0.75</v>
+            <v>6</v>
           </cell>
           <cell r="B18">
-            <v>6.2499939999999997E-2</v>
+            <v>3.6422859999999997E-5</v>
+          </cell>
+          <cell r="C18">
+            <v>4.1709409999999998E-5</v>
+          </cell>
+          <cell r="H18">
+            <v>6</v>
+          </cell>
+          <cell r="I18">
+            <v>3.6338519999999999E-5</v>
+          </cell>
+          <cell r="J18">
+            <v>4.1509769999999998E-5</v>
+          </cell>
+          <cell r="R18">
+            <v>6.5</v>
+          </cell>
+          <cell r="S18">
+            <v>5.6252029999999998E-6</v>
+          </cell>
+          <cell r="T18">
+            <v>6.5</v>
+          </cell>
+          <cell r="U18">
+            <v>1.9461400000000001E-6</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>0.8</v>
+            <v>6.25</v>
           </cell>
           <cell r="B19">
-            <v>3.7499930000000001E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>0.85</v>
-          </cell>
-          <cell r="B20">
-            <v>1.2499929999999999E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.9</v>
-          </cell>
-          <cell r="B21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>0.95</v>
-          </cell>
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1</v>
-          </cell>
-          <cell r="B23">
-            <v>0</v>
+            <v>8.5680890000000001E-6</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Sakata</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>GS(m=1) Tm/n</v>
+            <v>[1,5]th=0.05</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>[1,5]th=0.1</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>[1,5]th=0.15</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>[1,5]th=0.2</v>
           </cell>
           <cell r="G26" t="str">
-            <v>GS(optimal) Tm/n</v>
+            <v>[1,5]th=0.25</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>[1,5]th=0.3</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>[1,5]th=0.35</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v>[1,5]th=0.4</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>[1,5]th=0.45</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>[1,5]th=0.5</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>[1,5]th=0.6</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>[1,5]th=0.7</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>0</v>
-          </cell>
-          <cell r="B27">
-            <v>0.453125</v>
+            <v>-4</v>
           </cell>
           <cell r="C27">
-            <v>4.6875E-2</v>
+            <v>0.21585180000000001</v>
           </cell>
           <cell r="E27">
-            <v>0.546875</v>
-          </cell>
-          <cell r="G27">
-            <v>0.640625</v>
+            <v>-4</v>
+          </cell>
+          <cell r="F27">
+            <v>0.21585180000000001</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>0.05</v>
-          </cell>
-          <cell r="B28">
-            <v>0.42812499999999998</v>
+            <v>-3</v>
           </cell>
           <cell r="C28">
-            <v>9.375E-2</v>
+            <v>0.19134319999999999</v>
           </cell>
           <cell r="E28">
-            <v>0.421875</v>
-          </cell>
-          <cell r="G28">
-            <v>0.578125</v>
+            <v>-3</v>
+          </cell>
+          <cell r="F28">
+            <v>0.19134319999999999</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>0.1</v>
-          </cell>
-          <cell r="B29">
-            <v>0.40312500000000001</v>
+            <v>-2</v>
           </cell>
           <cell r="C29">
-            <v>0.140625</v>
+            <v>0.1638483</v>
           </cell>
           <cell r="E29">
-            <v>0.34375</v>
-          </cell>
-          <cell r="G29">
-            <v>0.53125</v>
+            <v>-2</v>
+          </cell>
+          <cell r="F29">
+            <v>0.1638483</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>0.15</v>
-          </cell>
-          <cell r="B30">
-            <v>0.37812499999999999</v>
+            <v>-1</v>
           </cell>
           <cell r="C30">
-            <v>0.203125</v>
+            <v>0.13437499999999999</v>
           </cell>
           <cell r="E30">
-            <v>0.28125</v>
-          </cell>
-          <cell r="G30">
-            <v>0.46875</v>
+            <v>-1</v>
+          </cell>
+          <cell r="F30">
+            <v>0.13437499999999999</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>0.2</v>
-          </cell>
-          <cell r="B31">
-            <v>0.35312500000000002</v>
+            <v>0</v>
           </cell>
           <cell r="C31">
-            <v>0.25</v>
+            <v>0.1093372</v>
           </cell>
           <cell r="E31">
-            <v>0.25</v>
-          </cell>
-          <cell r="G31">
-            <v>0.421875</v>
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>0.1093372</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>0.25</v>
-          </cell>
-          <cell r="B32">
-            <v>0.328125</v>
+            <v>1</v>
           </cell>
           <cell r="C32">
-            <v>0.296875</v>
+            <v>8.2812499999999997E-2</v>
           </cell>
           <cell r="E32">
-            <v>0.203125</v>
-          </cell>
-          <cell r="G32">
-            <v>0.375</v>
+            <v>1</v>
+          </cell>
+          <cell r="F32">
+            <v>8.2812499999999997E-2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>0.3</v>
-          </cell>
-          <cell r="B33">
-            <v>0.30312499999999998</v>
+            <v>1.5</v>
           </cell>
           <cell r="C33">
-            <v>0.34375</v>
+            <v>7.0551150000000007E-2</v>
           </cell>
           <cell r="E33">
-            <v>0.1875</v>
-          </cell>
-          <cell r="G33">
-            <v>0.34375</v>
+            <v>1.5</v>
+          </cell>
+          <cell r="F33">
+            <v>7.0551150000000007E-2</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>0.35</v>
+            <v>2</v>
           </cell>
           <cell r="B34">
-            <v>0.27812500000000001</v>
+            <v>5.932225E-2</v>
           </cell>
           <cell r="C34">
-            <v>0.390625</v>
+            <v>5.9274189999999997E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>5.932225E-2</v>
           </cell>
           <cell r="E34">
-            <v>0.15625</v>
+            <v>2</v>
+          </cell>
+          <cell r="F34">
+            <v>5.9274189999999997E-2</v>
           </cell>
           <cell r="G34">
-            <v>0.3125</v>
+            <v>5.932225E-2</v>
+          </cell>
+          <cell r="H34">
+            <v>5.932225E-2</v>
+          </cell>
+          <cell r="I34">
+            <v>5.932225E-2</v>
+          </cell>
+          <cell r="J34">
+            <v>5.932225E-2</v>
+          </cell>
+          <cell r="K34">
+            <v>5.932225E-2</v>
+          </cell>
+          <cell r="L34">
+            <v>5.932225E-2</v>
+          </cell>
+          <cell r="M34">
+            <v>5.932225E-2</v>
+          </cell>
+          <cell r="N34">
+            <v>5.932225E-2</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>0.4</v>
+            <v>2.5</v>
           </cell>
           <cell r="B35">
-            <v>0.25312499999999999</v>
+            <v>4.8040869999999999E-2</v>
           </cell>
           <cell r="C35">
-            <v>0.453125</v>
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>4.8040869999999999E-2</v>
           </cell>
           <cell r="E35">
-            <v>0.125</v>
+            <v>2.5</v>
+          </cell>
+          <cell r="F35">
+            <v>4.8040869999999999E-2</v>
           </cell>
           <cell r="G35">
-            <v>0.265625</v>
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="H35">
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="I35">
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="J35">
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="K35">
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="L35">
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="M35">
+            <v>4.8040869999999999E-2</v>
+          </cell>
+          <cell r="N35">
+            <v>4.8056519999999998E-2</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>0.45</v>
+            <v>3</v>
           </cell>
           <cell r="B36">
-            <v>0.22812499999999999</v>
+            <v>3.9572009999999998E-2</v>
           </cell>
           <cell r="C36">
-            <v>0.5</v>
+            <v>3.7340150000000003E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>3.9572009999999998E-2</v>
           </cell>
           <cell r="E36">
-            <v>0.109375</v>
+            <v>3</v>
+          </cell>
+          <cell r="F36">
+            <v>3.7340150000000003E-2</v>
           </cell>
           <cell r="G36">
-            <v>0.234375</v>
+            <v>3.9572009999999998E-2</v>
+          </cell>
+          <cell r="H36">
+            <v>3.9572009999999998E-2</v>
+          </cell>
+          <cell r="I36">
+            <v>3.9572009999999998E-2</v>
+          </cell>
+          <cell r="J36">
+            <v>3.9572009999999998E-2</v>
+          </cell>
+          <cell r="K36">
+            <v>3.9572009999999998E-2</v>
+          </cell>
+          <cell r="L36">
+            <v>3.961891E-2</v>
+          </cell>
+          <cell r="M36">
+            <v>4.033349E-2</v>
+          </cell>
+          <cell r="N36">
+            <v>4.0849910000000003E-2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>0.5</v>
+            <v>3.5</v>
           </cell>
           <cell r="B37">
-            <v>0.203125</v>
+            <v>2.5782989999999999E-2</v>
           </cell>
           <cell r="C37">
-            <v>0.546875</v>
+            <v>2.726199E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>2.5782989999999999E-2</v>
           </cell>
           <cell r="E37">
-            <v>7.8125E-2</v>
+            <v>3.5</v>
+          </cell>
+          <cell r="F37">
+            <v>2.726199E-2</v>
           </cell>
           <cell r="G37">
-            <v>0.203125</v>
+            <v>2.5782989999999999E-2</v>
+          </cell>
+          <cell r="H37">
+            <v>2.5782989999999999E-2</v>
+          </cell>
+          <cell r="I37">
+            <v>2.5854820000000001E-2</v>
+          </cell>
+          <cell r="J37">
+            <v>2.58427E-2</v>
+          </cell>
+          <cell r="K37">
+            <v>2.587451E-2</v>
+          </cell>
+          <cell r="L37">
+            <v>2.6311060000000001E-2</v>
+          </cell>
+          <cell r="M37">
+            <v>2.686241E-2</v>
+          </cell>
+          <cell r="N37">
+            <v>2.8067499999999999E-2</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>0.55000000000000004</v>
+            <v>4</v>
           </cell>
           <cell r="B38">
-            <v>0.17812500000000001</v>
+            <v>1.378333E-2</v>
           </cell>
           <cell r="C38">
-            <v>0.59375</v>
+            <v>1.363348E-2</v>
+          </cell>
+          <cell r="D38">
+            <v>1.378333E-2</v>
           </cell>
           <cell r="E38">
-            <v>6.25E-2</v>
+            <v>4</v>
+          </cell>
+          <cell r="F38">
+            <v>1.363348E-2</v>
           </cell>
           <cell r="G38">
-            <v>0.171875</v>
+            <v>1.378333E-2</v>
+          </cell>
+          <cell r="H38">
+            <v>1.3826629999999999E-2</v>
+          </cell>
+          <cell r="I38">
+            <v>1.386451E-2</v>
+          </cell>
+          <cell r="J38">
+            <v>1.403095E-2</v>
+          </cell>
+          <cell r="K38">
+            <v>1.4155320000000001E-2</v>
+          </cell>
+          <cell r="L38">
+            <v>1.50104E-2</v>
+          </cell>
+          <cell r="M38">
+            <v>1.6439079999999998E-2</v>
+          </cell>
+          <cell r="N38">
+            <v>1.7722269999999998E-2</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>0.6</v>
+            <v>4.5</v>
           </cell>
           <cell r="B39">
-            <v>0.15312500000000001</v>
+            <v>5.2302169999999997E-3</v>
           </cell>
           <cell r="C39">
-            <v>0.640625</v>
+            <v>4.9491320000000002E-3</v>
+          </cell>
+          <cell r="D39">
+            <v>5.2302169999999997E-3</v>
           </cell>
           <cell r="E39">
-            <v>3.125E-2</v>
+            <v>4.5</v>
+          </cell>
+          <cell r="F39">
+            <v>4.9491320000000002E-3</v>
           </cell>
           <cell r="G39">
-            <v>0.140625</v>
+            <v>5.2523229999999997E-3</v>
+          </cell>
+          <cell r="H39">
+            <v>5.3434980000000003E-3</v>
+          </cell>
+          <cell r="I39">
+            <v>5.4719879999999997E-3</v>
+          </cell>
+          <cell r="J39">
+            <v>5.8668970000000003E-3</v>
+          </cell>
+          <cell r="K39">
+            <v>6.4936880000000001E-3</v>
+          </cell>
+          <cell r="L39">
+            <v>6.6013039999999997E-3</v>
+          </cell>
+          <cell r="M39">
+            <v>7.3654189999999998E-3</v>
+          </cell>
+          <cell r="N39">
+            <v>8.4725479999999999E-3</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>0.65</v>
+            <v>5</v>
           </cell>
           <cell r="B40">
-            <v>0.12812499999999999</v>
+            <v>1.2872160000000001E-3</v>
           </cell>
           <cell r="C40">
-            <v>0.703125</v>
+            <v>1.2549569999999999E-3</v>
+          </cell>
+          <cell r="D40">
+            <v>1.2872160000000001E-3</v>
           </cell>
           <cell r="E40">
-            <v>0</v>
+            <v>5</v>
+          </cell>
+          <cell r="F40">
+            <v>1.289164E-3</v>
           </cell>
           <cell r="G40">
-            <v>0.109375</v>
+            <v>1.348749E-3</v>
+          </cell>
+          <cell r="H40">
+            <v>1.394419E-3</v>
+          </cell>
+          <cell r="I40">
+            <v>1.499897E-3</v>
+          </cell>
+          <cell r="J40">
+            <v>1.661058E-3</v>
+          </cell>
+          <cell r="K40">
+            <v>1.914261E-3</v>
+          </cell>
+          <cell r="L40">
+            <v>2.2837869999999998E-3</v>
+          </cell>
+          <cell r="M40">
+            <v>2.8242050000000002E-3</v>
+          </cell>
+          <cell r="N40">
+            <v>3.7003679999999999E-3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>0.7</v>
+            <v>5.5</v>
           </cell>
           <cell r="B41">
-            <v>0.10312490000000001</v>
+            <v>2.0991980000000001E-4</v>
           </cell>
           <cell r="C41">
-            <v>0.75</v>
+            <v>2.066324E-4</v>
+          </cell>
+          <cell r="D41">
+            <v>2.1882520000000001E-4</v>
           </cell>
           <cell r="E41">
-            <v>0</v>
+            <v>5.5</v>
+          </cell>
+          <cell r="F41">
+            <v>2.2170189999999999E-4</v>
           </cell>
           <cell r="G41">
-            <v>7.8125E-2</v>
+            <v>2.477779E-4</v>
+          </cell>
+          <cell r="H41">
+            <v>2.9519779999999997E-4</v>
+          </cell>
+          <cell r="I41">
+            <v>3.7566930000000002E-4</v>
+          </cell>
+          <cell r="J41">
+            <v>4.5959780000000001E-4</v>
+          </cell>
+          <cell r="K41">
+            <v>5.4447390000000005E-4</v>
+          </cell>
+          <cell r="L41">
+            <v>5.9019070000000001E-4</v>
+          </cell>
+          <cell r="M41">
+            <v>8.0986779999999998E-4</v>
+          </cell>
+          <cell r="N41">
+            <v>9.686839E-4</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>0.75</v>
+            <v>6</v>
           </cell>
           <cell r="B42">
-            <v>7.8124940000000004E-2</v>
+            <v>1.52572E-5</v>
           </cell>
           <cell r="C42">
-            <v>0.796875</v>
+            <v>1.6326610000000001E-5</v>
+          </cell>
+          <cell r="D42">
+            <v>1.932482E-5</v>
           </cell>
           <cell r="E42">
-            <v>0</v>
+            <v>6</v>
+          </cell>
+          <cell r="F42">
+            <v>2.4383219999999999E-5</v>
           </cell>
           <cell r="G42">
-            <v>6.25E-2</v>
+            <v>3.2247499999999999E-5</v>
+          </cell>
+          <cell r="H42">
+            <v>4.5711460000000002E-5</v>
+          </cell>
+          <cell r="I42">
+            <v>5.4217579999999999E-5</v>
+          </cell>
+          <cell r="J42">
+            <v>6.7550519999999998E-5</v>
+          </cell>
+          <cell r="K42">
+            <v>8.5255090000000002E-5</v>
+          </cell>
+          <cell r="L42">
+            <v>1.117026E-4</v>
+          </cell>
+          <cell r="M42">
+            <v>1.67381E-4</v>
+          </cell>
+          <cell r="N42">
+            <v>2.2726779999999999E-4</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>0.8</v>
-          </cell>
-          <cell r="B43">
-            <v>5.3124930000000001E-2</v>
-          </cell>
-          <cell r="C43">
-            <v>0.84375</v>
+            <v>6.5</v>
           </cell>
           <cell r="E43">
-            <v>0</v>
+            <v>6.25</v>
+          </cell>
+          <cell r="F43">
+            <v>7.6389439999999993E-6</v>
           </cell>
           <cell r="G43">
-            <v>3.125E-2</v>
+            <v>7.6389439999999993E-6</v>
+          </cell>
+          <cell r="I43">
+            <v>2.3203939999999999E-5</v>
+          </cell>
+          <cell r="L43">
+            <v>1.7653480000000002E-5</v>
+          </cell>
+          <cell r="M43">
+            <v>2.43352E-5</v>
+          </cell>
+          <cell r="N43">
+            <v>2.9673579999999999E-5</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="A44">
-            <v>0.85</v>
-          </cell>
-          <cell r="B44">
-            <v>2.8124929999999999E-2</v>
-          </cell>
-          <cell r="C44">
-            <v>0.890625</v>
-          </cell>
           <cell r="E44">
-            <v>0</v>
+            <v>6.5</v>
           </cell>
           <cell r="G44">
-            <v>1.5625E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>0.9</v>
-          </cell>
-          <cell r="B45">
-            <v>3.1249229999999999E-3</v>
-          </cell>
-          <cell r="C45">
-            <v>0.95</v>
-          </cell>
-          <cell r="E45">
-            <v>0</v>
-          </cell>
-          <cell r="G45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>0.95</v>
-          </cell>
-          <cell r="B46">
-            <v>0</v>
-          </cell>
-          <cell r="C46">
-            <v>1</v>
-          </cell>
-          <cell r="E46">
-            <v>0</v>
-          </cell>
-          <cell r="G46">
-            <v>0</v>
+            <v>2.2382820000000002E-6</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="A47">
-            <v>1</v>
-          </cell>
-          <cell r="B47">
-            <v>0</v>
+          <cell r="B47" t="str">
+            <v>[2,5]th=0.1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>[2,5]th=0.2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>-4</v>
+          </cell>
+          <cell r="B48">
+            <v>0.21585180000000001</v>
+          </cell>
+          <cell r="C48">
+            <v>0.21585180000000001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>-3</v>
+          </cell>
+          <cell r="B49">
+            <v>0.19134319999999999</v>
+          </cell>
+          <cell r="C49">
+            <v>0.19134319999999999</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="B50" t="str">
-            <v>Sakata</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>GS(m=1) Tm/n</v>
-          </cell>
-          <cell r="G50" t="str">
-            <v>GS(optimal) Tm/n</v>
+          <cell r="A50">
+            <v>-2</v>
+          </cell>
+          <cell r="B50">
+            <v>0.1638483</v>
+          </cell>
+          <cell r="C50">
+            <v>0.1638483</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>0</v>
+            <v>-1</v>
           </cell>
           <cell r="B51">
-            <v>0.47265629999999997</v>
+            <v>0.13437499999999999</v>
           </cell>
           <cell r="C51">
-            <v>4.8828125E-2</v>
-          </cell>
-          <cell r="E51">
-            <v>0.548828125</v>
-          </cell>
-          <cell r="G51">
-            <v>0.6796875</v>
+            <v>0.13437499999999999</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>0.05</v>
+            <v>0</v>
           </cell>
           <cell r="B52">
-            <v>0.4476562</v>
+            <v>0.1093372</v>
           </cell>
           <cell r="C52">
-            <v>9.9609375E-2</v>
-          </cell>
-          <cell r="E52">
-            <v>0.466796875</v>
-          </cell>
-          <cell r="G52">
-            <v>0.609375</v>
+            <v>0.1093372</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>0.1</v>
+            <v>1</v>
           </cell>
           <cell r="B53">
-            <v>0.42265619999999998</v>
+            <v>8.2812499999999997E-2</v>
           </cell>
           <cell r="C53">
-            <v>0.1484375</v>
-          </cell>
-          <cell r="E53">
-            <v>0.41015625</v>
-          </cell>
-          <cell r="G53">
-            <v>0.55078125</v>
+            <v>8.2812499999999997E-2</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>0.15</v>
+            <v>1.5</v>
           </cell>
           <cell r="B54">
-            <v>0.39765630000000002</v>
+            <v>7.0551150000000007E-2</v>
           </cell>
           <cell r="C54">
-            <v>0.19921875</v>
-          </cell>
-          <cell r="E54">
-            <v>0.359375</v>
-          </cell>
-          <cell r="G54">
-            <v>0.498046875</v>
+            <v>7.0551150000000007E-2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>0.2</v>
+            <v>2</v>
           </cell>
           <cell r="B55">
-            <v>0.3726563</v>
+            <v>5.9274189999999997E-2</v>
           </cell>
           <cell r="C55">
-            <v>0.25</v>
-          </cell>
-          <cell r="E55">
-            <v>0.310546875</v>
-          </cell>
-          <cell r="G55">
-            <v>0.44921875</v>
+            <v>5.9274189999999997E-2</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>0.25</v>
+            <v>2.5</v>
           </cell>
           <cell r="B56">
-            <v>0.34765629999999997</v>
+            <v>4.8040869999999999E-2</v>
           </cell>
           <cell r="C56">
-            <v>0.298828125</v>
-          </cell>
-          <cell r="E56">
-            <v>0.26953125</v>
-          </cell>
-          <cell r="G56">
-            <v>0.40625</v>
+            <v>4.8040869999999999E-2</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>0.3</v>
+            <v>3</v>
           </cell>
           <cell r="B57">
-            <v>0.3226562</v>
+            <v>3.7340150000000003E-2</v>
           </cell>
           <cell r="C57">
-            <v>0.349609375</v>
-          </cell>
-          <cell r="E57">
-            <v>0.2421875</v>
-          </cell>
-          <cell r="G57">
-            <v>0.365234375</v>
+            <v>3.7340150000000003E-2</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>0.35</v>
+            <v>3.5</v>
           </cell>
           <cell r="B58">
-            <v>0.29765619999999998</v>
+            <v>2.726199E-2</v>
           </cell>
           <cell r="C58">
-            <v>0.400390625</v>
-          </cell>
-          <cell r="E58">
-            <v>0.216796875</v>
-          </cell>
-          <cell r="G58">
-            <v>0.326171875</v>
+            <v>2.726199E-2</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>0.4</v>
+            <v>4</v>
           </cell>
           <cell r="B59">
-            <v>0.27265620000000002</v>
+            <v>1.363348E-2</v>
           </cell>
           <cell r="C59">
-            <v>0.44921875</v>
-          </cell>
-          <cell r="E59">
-            <v>0.193359375</v>
-          </cell>
-          <cell r="G59">
-            <v>0.291015625</v>
+            <v>1.363348E-2</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>0.45</v>
+            <v>4.5</v>
           </cell>
           <cell r="B60">
-            <v>0.24765619999999999</v>
+            <v>4.9491320000000002E-3</v>
           </cell>
           <cell r="C60">
-            <v>0.5</v>
-          </cell>
-          <cell r="E60">
-            <v>0.16796875</v>
-          </cell>
-          <cell r="G60">
-            <v>0.255859375</v>
+            <v>4.9491320000000002E-3</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>0.5</v>
+            <v>5</v>
           </cell>
           <cell r="B61">
-            <v>0.2226562</v>
+            <v>1.242228E-3</v>
           </cell>
           <cell r="C61">
-            <v>0.548828125</v>
-          </cell>
-          <cell r="E61">
-            <v>0.142578125</v>
-          </cell>
-          <cell r="G61">
-            <v>0.22265625</v>
+            <v>1.2528229999999999E-3</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>0.55000000000000004</v>
+            <v>5.5</v>
           </cell>
           <cell r="B62">
-            <v>0.1976562</v>
+            <v>2.066324E-4</v>
           </cell>
           <cell r="C62">
-            <v>0.599609375</v>
-          </cell>
-          <cell r="E62">
-            <v>0.1171875</v>
-          </cell>
-          <cell r="G62">
-            <v>0.19140625</v>
+            <v>2.2170189999999999E-4</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>0.6</v>
+            <v>6</v>
           </cell>
           <cell r="B63">
-            <v>0.17265620000000001</v>
+            <v>1.6185520000000001E-5</v>
           </cell>
           <cell r="C63">
-            <v>0.650390625</v>
-          </cell>
-          <cell r="E63">
-            <v>9.1796875E-2</v>
-          </cell>
-          <cell r="G63">
-            <v>0.16015625</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>0.65</v>
-          </cell>
-          <cell r="B64">
-            <v>0.14765619999999999</v>
-          </cell>
-          <cell r="C64">
-            <v>0.69921875</v>
-          </cell>
-          <cell r="E64">
-            <v>6.8359375E-2</v>
-          </cell>
-          <cell r="G64">
-            <v>0.1328125</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>0.7</v>
-          </cell>
-          <cell r="B65">
-            <v>0.12265620000000001</v>
-          </cell>
-          <cell r="C65">
-            <v>0.75</v>
-          </cell>
-          <cell r="E65">
-            <v>4.296875E-2</v>
-          </cell>
-          <cell r="G65">
-            <v>0.103515625</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>0.75</v>
-          </cell>
-          <cell r="B66">
-            <v>9.7656190000000004E-2</v>
-          </cell>
-          <cell r="C66">
-            <v>0.798828125</v>
-          </cell>
-          <cell r="E66">
-            <v>1.7578125E-2</v>
-          </cell>
-          <cell r="G66">
-            <v>7.6171875E-2</v>
+            <v>2.3741349999999999E-5</v>
           </cell>
         </row>
         <row r="67">
-          <cell r="A67">
-            <v>0.8</v>
-          </cell>
-          <cell r="B67">
-            <v>7.2656180000000001E-2</v>
-          </cell>
-          <cell r="C67">
-            <v>0.849609375</v>
-          </cell>
-          <cell r="E67">
-            <v>0</v>
-          </cell>
-          <cell r="G67">
-            <v>4.8828125E-2</v>
+          <cell r="B67" t="str">
+            <v>[1,3]th=0.1</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>0.85</v>
+            <v>0</v>
           </cell>
           <cell r="B68">
-            <v>4.7656179999999999E-2</v>
-          </cell>
-          <cell r="C68">
-            <v>0.8984375</v>
-          </cell>
-          <cell r="E68">
-            <v>0</v>
-          </cell>
-          <cell r="G68">
-            <v>2.34375E-2</v>
+            <v>0.10805190000000001</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>0.9</v>
+            <v>0.5</v>
           </cell>
           <cell r="B69">
-            <v>2.265617E-2</v>
-          </cell>
-          <cell r="C69">
-            <v>0.94921875</v>
-          </cell>
-          <cell r="E69">
-            <v>0</v>
-          </cell>
-          <cell r="G69">
-            <v>0</v>
+            <v>9.4657259999999993E-2</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>0.95</v>
+            <v>1</v>
           </cell>
           <cell r="B70">
-            <v>0</v>
-          </cell>
-          <cell r="C70">
-            <v>1</v>
-          </cell>
-          <cell r="E70">
-            <v>0</v>
-          </cell>
-          <cell r="G70">
-            <v>0</v>
+            <v>8.3896170000000006E-2</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
           <cell r="B71">
-            <v>0</v>
+            <v>7.0451109999999997E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>2</v>
+          </cell>
+          <cell r="B72">
+            <v>6.015123E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>2.5</v>
+          </cell>
+          <cell r="B73">
+            <v>4.9483289999999999E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>3</v>
+          </cell>
+          <cell r="B74">
+            <v>3.8097560000000003E-2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>3.5</v>
+          </cell>
+          <cell r="B75">
+            <v>2.748807E-2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>4</v>
+          </cell>
+          <cell r="B76">
+            <v>1.617563E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>4.5</v>
+          </cell>
+          <cell r="B77">
+            <v>7.9292070000000006E-3</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>5</v>
+          </cell>
+          <cell r="B78">
+            <v>2.4755469999999998E-3</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>5.5</v>
+          </cell>
+          <cell r="B79">
+            <v>5.8491550000000004E-4</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>6</v>
+          </cell>
+          <cell r="B80">
+            <v>6.4938409999999995E-5</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>6.5</v>
+          </cell>
+          <cell r="B81">
+            <v>5.5514650000000002E-6</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16395,6 +19845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17873,10 +21324,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18834,22 +22286,1187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P76"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48:L55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="6" width="11.75" customWidth="1"/>
+    <col min="9" max="13" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="31">
+        <v>-4</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.27420339999999999</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.27420339999999999</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0.27420339999999999</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.27540019999999998</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0.27391979999999999</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31">
+        <v>-4</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0.27420339999999999</v>
+      </c>
+      <c r="J3" s="36">
+        <v>0.27420339999999999</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0.27420339999999999</v>
+      </c>
+      <c r="L3" s="36">
+        <v>0.27540019999999998</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0.27432269999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="31">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.2221774</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.2221774</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.2217742</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.2234477</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.22678970000000001</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="31">
+        <v>-3</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0.2221774</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0.2221774</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0.2217742</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0.22372</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0.22675390000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="31">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.18693589999999999</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.1865975</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.1864865</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.18959110000000001</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.1938851</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31">
+        <v>-2</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0.18693589999999999</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0.1865975</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0.1864865</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.18888630000000001</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.19258719999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="31">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.14904580000000001</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.1497696</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.15268989999999999</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.1513051</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.16470199999999999</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.14904580000000001</v>
+      </c>
+      <c r="J6" s="37">
+        <v>0.14973159999999999</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.15304110000000001</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0.15252850000000001</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0.161413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="31">
+        <v>0</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.1054813</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.10552830000000001</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.1085526</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.11711779999999999</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.1156457</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0.1054813</v>
+      </c>
+      <c r="J7" s="37">
+        <v>0.1045932</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0.1088042</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0.1174906</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0.1175944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32">
+        <v>6.6309930000000003E-2</v>
+      </c>
+      <c r="C8" s="37">
+        <v>6.8165470000000006E-2</v>
+      </c>
+      <c r="D8" s="37">
+        <v>7.0404560000000005E-2</v>
+      </c>
+      <c r="E8" s="35">
+        <v>7.6013510000000006E-2</v>
+      </c>
+      <c r="F8" s="32">
+        <v>8.6787219999999998E-2</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
+        <v>6.6309930000000003E-2</v>
+      </c>
+      <c r="J8" s="37">
+        <v>6.8501809999999996E-2</v>
+      </c>
+      <c r="K8" s="37">
+        <v>6.9291409999999998E-2</v>
+      </c>
+      <c r="L8" s="37">
+        <v>7.3934840000000002E-2</v>
+      </c>
+      <c r="M8" s="32">
+        <v>7.6876109999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="31">
+        <v>2</v>
+      </c>
+      <c r="B9" s="32">
+        <v>3.4804109999999999E-2</v>
+      </c>
+      <c r="C9" s="37">
+        <v>3.9045070000000001E-2</v>
+      </c>
+      <c r="D9" s="37">
+        <v>4.5755780000000003E-2</v>
+      </c>
+      <c r="E9" s="35">
+        <v>5.2026330000000003E-2</v>
+      </c>
+      <c r="F9" s="32">
+        <v>5.712366E-2</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="31">
+        <v>2</v>
+      </c>
+      <c r="I9" s="32">
+        <v>3.4875429999999999E-2</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3.8677379999999997E-2</v>
+      </c>
+      <c r="K9" s="37">
+        <v>4.5387700000000003E-2</v>
+      </c>
+      <c r="L9" s="37">
+        <v>4.9198909999999998E-2</v>
+      </c>
+      <c r="M9" s="32">
+        <v>5.4756640000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="31">
+        <v>3</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1.829795E-2</v>
+      </c>
+      <c r="C10" s="37">
+        <v>2.1807549999999998E-2</v>
+      </c>
+      <c r="D10" s="37">
+        <v>2.5218230000000001E-2</v>
+      </c>
+      <c r="E10" s="35">
+        <v>3.0105630000000001E-2</v>
+      </c>
+      <c r="F10" s="32">
+        <v>3.3443479999999998E-2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="31">
+        <v>3</v>
+      </c>
+      <c r="I10" s="32">
+        <v>1.833249E-2</v>
+      </c>
+      <c r="J10" s="37">
+        <v>2.071247E-2</v>
+      </c>
+      <c r="K10" s="37">
+        <v>2.325207E-2</v>
+      </c>
+      <c r="L10" s="37">
+        <v>2.6046739999999999E-2</v>
+      </c>
+      <c r="M10" s="32">
+        <v>2.7888010000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="31">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32">
+        <v>6.5271890000000001E-3</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1.0173069999999999E-2</v>
+      </c>
+      <c r="D11" s="37">
+        <v>1.2634859999999999E-2</v>
+      </c>
+      <c r="E11" s="35">
+        <v>1.5380370000000001E-2</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1.70498E-2</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="31">
+        <v>4</v>
+      </c>
+      <c r="I11" s="32">
+        <v>6.453192E-3</v>
+      </c>
+      <c r="J11" s="37">
+        <v>9.0298840000000002E-3</v>
+      </c>
+      <c r="K11" s="37">
+        <v>1.038422E-2</v>
+      </c>
+      <c r="L11" s="37">
+        <v>1.191239E-2</v>
+      </c>
+      <c r="M11" s="32">
+        <v>1.2223940000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="31">
+        <v>5</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2.1090599999999998E-3</v>
+      </c>
+      <c r="C12" s="37">
+        <v>3.3123010000000001E-3</v>
+      </c>
+      <c r="D12" s="37">
+        <v>4.7021249999999997E-3</v>
+      </c>
+      <c r="E12" s="35">
+        <v>5.8063730000000001E-3</v>
+      </c>
+      <c r="F12" s="32">
+        <v>7.6672340000000002E-3</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="31">
+        <v>5</v>
+      </c>
+      <c r="I12" s="32">
+        <v>1.8972380000000001E-3</v>
+      </c>
+      <c r="J12" s="37">
+        <v>2.6006309999999999E-3</v>
+      </c>
+      <c r="K12" s="37">
+        <v>2.9949780000000001E-3</v>
+      </c>
+      <c r="L12" s="37">
+        <v>3.5723759999999999E-3</v>
+      </c>
+      <c r="M12" s="32">
+        <v>3.7869179999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="31">
+        <v>6</v>
+      </c>
+      <c r="B13" s="32">
+        <v>6.1315869999999995E-4</v>
+      </c>
+      <c r="C13" s="37">
+        <v>1.0284599999999999E-3</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1.4314950000000001E-3</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1.7105079999999999E-3</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1.9038869999999999E-3</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="31">
+        <v>6</v>
+      </c>
+      <c r="I13" s="32">
+        <v>4.5162810000000001E-4</v>
+      </c>
+      <c r="J13" s="37">
+        <v>6.2064360000000003E-4</v>
+      </c>
+      <c r="K13" s="37">
+        <v>7.3354889999999997E-4</v>
+      </c>
+      <c r="L13" s="37">
+        <v>7.4843710000000005E-4</v>
+      </c>
+      <c r="M13" s="32">
+        <v>8.4031700000000004E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
+        <v>7</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1.3266809999999999E-4</v>
+      </c>
+      <c r="C14" s="37">
+        <v>2.102974E-4</v>
+      </c>
+      <c r="D14" s="37">
+        <v>2.7695140000000003E-4</v>
+      </c>
+      <c r="E14" s="35">
+        <v>3.387644E-4</v>
+      </c>
+      <c r="F14" s="32">
+        <v>3.9273580000000002E-4</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="31">
+        <v>7</v>
+      </c>
+      <c r="I14" s="32">
+        <v>6.1732789999999999E-5</v>
+      </c>
+      <c r="J14" s="37">
+        <v>7.8938300000000003E-5</v>
+      </c>
+      <c r="K14" s="37">
+        <v>8.9589850000000004E-5</v>
+      </c>
+      <c r="L14" s="37">
+        <v>9.5022159999999997E-5</v>
+      </c>
+      <c r="M14" s="32">
+        <v>9.7715290000000002E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="31">
+        <v>8</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1.5216889999999999E-5</v>
+      </c>
+      <c r="C15" s="37">
+        <v>2.7802569999999998E-5</v>
+      </c>
+      <c r="D15" s="37">
+        <v>3.7535839999999997E-5</v>
+      </c>
+      <c r="E15" s="35">
+        <v>4.5340970000000003E-5</v>
+      </c>
+      <c r="F15" s="32">
+        <v>5.3668080000000001E-5</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="31">
+        <v>8</v>
+      </c>
+      <c r="I15" s="32">
+        <v>4.5335870000000004E-6</v>
+      </c>
+      <c r="J15" s="37">
+        <v>5.8868409999999998E-6</v>
+      </c>
+      <c r="K15" s="37">
+        <v>6.3335450000000002E-6</v>
+      </c>
+      <c r="L15" s="37">
+        <v>6.5514630000000003E-6</v>
+      </c>
+      <c r="M15" s="32">
+        <v>6.755893E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
+        <v>9</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1.3018979999999999E-6</v>
+      </c>
+      <c r="C16" s="37">
+        <v>2.0515190000000001E-6</v>
+      </c>
+      <c r="D16" s="37">
+        <v>2.6511919999999999E-6</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3.1039870000000001E-6</v>
+      </c>
+      <c r="F16" s="32">
+        <v>3.3667579999999998E-6</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="31">
+        <v>9</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="31">
+        <v>10</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="31">
+        <v>10</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="40">
+        <v>-4</v>
+      </c>
+      <c r="B21" s="41">
+        <v>0.26815480000000003</v>
+      </c>
+      <c r="C21" s="41">
+        <v>0.26815480000000003</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0.26815480000000003</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0.2713855</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="40">
+        <v>-4</v>
+      </c>
+      <c r="I21" s="41">
+        <v>0.26815480000000003</v>
+      </c>
+      <c r="J21" s="41">
+        <v>0.26815480000000003</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="40">
+        <v>-3</v>
+      </c>
+      <c r="B22" s="43">
+        <v>0.21568880000000001</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0.21618850000000001</v>
+      </c>
+      <c r="D22" s="43">
+        <v>0.2161082</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0.21656980000000001</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="40">
+        <v>-3</v>
+      </c>
+      <c r="I22" s="43">
+        <v>0.21568880000000001</v>
+      </c>
+      <c r="J22" s="43">
+        <v>0.21618850000000001</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="40">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="43">
+        <v>0.1783563</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0.17841699999999999</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0.17963290000000001</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.18568509999999999</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="40">
+        <v>-2</v>
+      </c>
+      <c r="I23" s="43">
+        <v>0.1783563</v>
+      </c>
+      <c r="J23" s="43">
+        <v>0.17841699999999999</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="38"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="40">
+        <v>-1</v>
+      </c>
+      <c r="B24" s="43">
+        <v>0.1465149</v>
+      </c>
+      <c r="C24" s="43">
+        <v>0.14604230000000001</v>
+      </c>
+      <c r="D24" s="43">
+        <v>0.1480312</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.149841</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="40">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="43">
+        <v>0.1465149</v>
+      </c>
+      <c r="J24" s="43">
+        <v>0.14619099999999999</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="38"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="40">
+        <v>0</v>
+      </c>
+      <c r="B25" s="43">
+        <v>9.6445500000000003E-2</v>
+      </c>
+      <c r="C25" s="43">
+        <v>0.10011340000000001</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0.1059933</v>
+      </c>
+      <c r="E25" s="42">
+        <v>0.1140567</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="40">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <v>9.6445500000000003E-2</v>
+      </c>
+      <c r="J25" s="43">
+        <v>0.1003024</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="38"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="40">
+        <v>1</v>
+      </c>
+      <c r="B26" s="43">
+        <v>6.1402129999999999E-2</v>
+      </c>
+      <c r="C26" s="43">
+        <v>6.3885159999999996E-2</v>
+      </c>
+      <c r="D26" s="43">
+        <v>6.9756189999999996E-2</v>
+      </c>
+      <c r="E26" s="42">
+        <v>7.6555559999999995E-2</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="40">
+        <v>1</v>
+      </c>
+      <c r="I26" s="43">
+        <v>6.1402129999999999E-2</v>
+      </c>
+      <c r="J26" s="43">
+        <v>6.3542360000000006E-2</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="38"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="40">
+        <v>2</v>
+      </c>
+      <c r="B27" s="43">
+        <v>3.3653849999999999E-2</v>
+      </c>
+      <c r="C27" s="43">
+        <v>3.7521079999999998E-2</v>
+      </c>
+      <c r="D27" s="43">
+        <v>4.6462660000000003E-2</v>
+      </c>
+      <c r="E27" s="42">
+        <v>5.2446949999999999E-2</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="40">
+        <v>2</v>
+      </c>
+      <c r="I27" s="43">
+        <v>3.3692960000000001E-2</v>
+      </c>
+      <c r="J27" s="43">
+        <v>3.7453180000000003E-2</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="40">
+        <v>3</v>
+      </c>
+      <c r="B28" s="43">
+        <v>1.5687989999999999E-2</v>
+      </c>
+      <c r="C28" s="43">
+        <v>2.1638330000000001E-2</v>
+      </c>
+      <c r="D28" s="43">
+        <v>2.4745389999999999E-2</v>
+      </c>
+      <c r="E28" s="42">
+        <v>3.026131E-2</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="40">
+        <v>3</v>
+      </c>
+      <c r="I28" s="43">
+        <v>1.5668370000000001E-2</v>
+      </c>
+      <c r="J28" s="43">
+        <v>2.071282E-2</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="40">
+        <v>4</v>
+      </c>
+      <c r="B29" s="43">
+        <v>5.9111559999999999E-3</v>
+      </c>
+      <c r="C29" s="43">
+        <v>9.8290879999999997E-3</v>
+      </c>
+      <c r="D29" s="43">
+        <v>1.2394290000000001E-2</v>
+      </c>
+      <c r="E29" s="42">
+        <v>1.532472E-2</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="40">
+        <v>4</v>
+      </c>
+      <c r="I29" s="43">
+        <v>5.7564060000000004E-3</v>
+      </c>
+      <c r="J29" s="43">
+        <v>8.6784489999999995E-3</v>
+      </c>
+      <c r="K29" s="30"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="38"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="40">
+        <v>5</v>
+      </c>
+      <c r="B30" s="43">
+        <v>2.0656379999999998E-3</v>
+      </c>
+      <c r="C30" s="43">
+        <v>3.1931770000000002E-3</v>
+      </c>
+      <c r="D30" s="43">
+        <v>4.6735930000000002E-3</v>
+      </c>
+      <c r="E30" s="42">
+        <v>5.8139530000000002E-3</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="40">
+        <v>5</v>
+      </c>
+      <c r="I30" s="43">
+        <v>1.87094E-3</v>
+      </c>
+      <c r="J30" s="43">
+        <v>2.509776E-3</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="40">
+        <v>6</v>
+      </c>
+      <c r="B31" s="43">
+        <v>6.0832270000000003E-4</v>
+      </c>
+      <c r="C31" s="43">
+        <v>1.0160869999999999E-3</v>
+      </c>
+      <c r="D31" s="43">
+        <v>1.4315479999999999E-3</v>
+      </c>
+      <c r="E31" s="42">
+        <v>1.7045140000000001E-3</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="40">
+        <v>6</v>
+      </c>
+      <c r="I31" s="43">
+        <v>4.461353E-4</v>
+      </c>
+      <c r="J31" s="43">
+        <v>6.2764519999999999E-4</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="40">
+        <v>7</v>
+      </c>
+      <c r="B32" s="43">
+        <v>1.2996399999999999E-4</v>
+      </c>
+      <c r="C32" s="43">
+        <v>2.115722E-4</v>
+      </c>
+      <c r="D32" s="43">
+        <v>2.77819E-4</v>
+      </c>
+      <c r="E32" s="42">
+        <v>3.387315E-4</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="40">
+        <v>7</v>
+      </c>
+      <c r="I32" s="43">
+        <v>6.1160040000000007E-5</v>
+      </c>
+      <c r="J32" s="43">
+        <v>7.8796350000000007E-5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="40">
+        <v>8</v>
+      </c>
+      <c r="B33" s="43">
+        <v>1.52055E-5</v>
+      </c>
+      <c r="C33" s="43">
+        <v>2.7802569999999998E-5</v>
+      </c>
+      <c r="D33" s="43">
+        <v>3.7535839999999997E-5</v>
+      </c>
+      <c r="E33" s="42">
+        <v>4.5357120000000001E-5</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="40">
+        <v>8</v>
+      </c>
+      <c r="I33" s="43">
+        <v>4.5191389999999997E-6</v>
+      </c>
+      <c r="J33" s="43">
+        <v>5.8871160000000004E-6</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="40">
+        <v>9</v>
+      </c>
+      <c r="B34" s="43">
+        <v>1.302392E-6</v>
+      </c>
+      <c r="C34" s="43">
+        <v>1.9795439999999998E-6</v>
+      </c>
+      <c r="D34" s="43">
+        <v>2.524312E-6</v>
+      </c>
+      <c r="E34" s="42">
+        <v>3.0114009999999999E-6</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="40">
+        <v>9</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="40">
+        <v>10</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="40">
+        <v>10</v>
+      </c>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I19:K19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:P135"/>
+  <sheetViews>
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="13.125" customWidth="1"/>
@@ -19995,419 +24612,1586 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="A42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K42" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="K42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M42" s="7"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="A43" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K43" t="s">
+      <c r="E43" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L43" t="s">
+      <c r="H43" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="A44" s="26">
         <v>-4</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="27">
         <v>0.26939659999999999</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="27">
         <v>0.27124999999999999</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="27">
         <v>0.2767519</v>
       </c>
-      <c r="K44" s="2">
+      <c r="E44" s="27">
+        <v>0.27420339999999999</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26">
         <v>-4</v>
       </c>
-      <c r="L44" s="1">
+      <c r="H44" s="27">
+        <v>0.27649459999999998</v>
+      </c>
+      <c r="K44" s="8">
+        <v>-4</v>
+      </c>
+      <c r="L44" s="9">
         <v>0.26094889999999998</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="9">
         <v>0.23818600000000001</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="A45" s="26">
         <v>-3</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="27">
         <v>0.2465986</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="27">
         <v>0.25362899999999999</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="27">
         <v>0.25634059999999997</v>
       </c>
-      <c r="K45" s="2">
+      <c r="E45" s="27">
+        <v>0.2221774</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26">
         <v>-3</v>
       </c>
-      <c r="L45" s="1">
+      <c r="H45" s="27">
+        <v>0.24222640000000001</v>
+      </c>
+      <c r="K45" s="8">
+        <v>-3</v>
+      </c>
+      <c r="L45" s="9">
         <v>0.2433979</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="9">
         <v>0.21965319999999999</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="A46" s="26">
         <v>-2</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="27">
         <v>0.226461</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="27">
         <v>0.2307099</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="27">
         <v>0.1875</v>
       </c>
-      <c r="K46" s="2">
+      <c r="E46" s="27">
+        <v>0.18693589999999999</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26">
         <v>-2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="H46" s="27">
+        <v>0.20406460000000001</v>
+      </c>
+      <c r="K46" s="8">
+        <v>-2</v>
+      </c>
+      <c r="L46" s="9">
         <v>0.22596150000000001</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="9">
         <v>0.1898522</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="A47" s="26">
         <v>-1</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="27">
         <v>0.175071</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="27">
         <v>0.17480470000000001</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="27">
         <v>0.15412619999999999</v>
       </c>
-      <c r="K47" s="2">
+      <c r="E47" s="27">
+        <v>0.14904580000000001</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26">
         <v>-1</v>
       </c>
-      <c r="L47" s="1">
+      <c r="H47" s="27">
+        <v>0.16981589999999999</v>
+      </c>
+      <c r="K47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L47" s="9">
         <v>0.17919299999999999</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="9">
         <v>0.12671569999999999</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+      <c r="A48" s="26">
         <v>0</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="27">
         <v>0.15889829999999999</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="27">
         <v>0.14914769999999999</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="27">
         <v>0.11762640000000001</v>
       </c>
-      <c r="K48" s="2">
+      <c r="E48" s="27">
+        <v>0.1055021</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26">
         <v>0</v>
       </c>
-      <c r="L48" s="1">
+      <c r="H48" s="27">
+        <v>0.1291031</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
         <v>0.13335559999999999</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="9">
         <v>9.8073900000000006E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="A49" s="26">
         <v>1</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="27">
         <v>0.1123927</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="27">
         <v>0.1132671</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="27">
         <v>7.458178E-2</v>
       </c>
-      <c r="K49" s="2">
+      <c r="E49" s="27">
+        <v>6.6048220000000005E-2</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26">
         <v>1</v>
       </c>
-      <c r="L49" s="1">
+      <c r="H49" s="27">
+        <v>9.8192769999999999E-2</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1</v>
+      </c>
+      <c r="L49" s="9">
         <v>0.1092233</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="9">
         <v>6.3432840000000004E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="A50" s="26">
         <v>2</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="27">
         <v>7.8595319999999996E-2</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="27">
         <v>7.582237E-2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="27">
         <v>4.1579860000000003E-2</v>
       </c>
-      <c r="K50" s="2">
+      <c r="E50" s="27">
+        <v>3.3935020000000003E-2</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26">
         <v>2</v>
       </c>
-      <c r="L50" s="1">
+      <c r="H50" s="27">
+        <v>5.762217E-2</v>
+      </c>
+      <c r="K50" s="8">
+        <v>2</v>
+      </c>
+      <c r="L50" s="9">
         <v>8.2075469999999998E-2</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="9">
         <v>3.6069650000000002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="A51" s="26">
         <v>3</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="27">
         <v>5.46875E-2</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="27">
         <v>4.4241570000000001E-2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="27">
         <v>2.2745020000000001E-2</v>
       </c>
-      <c r="K51" s="2">
+      <c r="E51" s="27">
+        <v>1.7546570000000001E-2</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26">
         <v>3</v>
       </c>
-      <c r="L51" s="1">
+      <c r="H51" s="27">
+        <v>2.8760049999999999E-2</v>
+      </c>
+      <c r="K51" s="8">
+        <v>3</v>
+      </c>
+      <c r="L51" s="9">
         <v>4.3805799999999999E-2</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="9">
         <v>2.2574919999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+      <c r="A52" s="26">
         <v>4</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="27">
         <v>3.3523690000000002E-2</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="27">
         <v>2.1568250000000001E-2</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="27">
         <v>8.3187390000000003E-3</v>
       </c>
-      <c r="K52" s="2">
+      <c r="E52" s="27">
+        <v>5.1093579999999996E-3</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26">
         <v>4</v>
       </c>
-      <c r="L52" s="1">
+      <c r="H52" s="27">
+        <v>1.230679E-2</v>
+      </c>
+      <c r="K52" s="8">
+        <v>4</v>
+      </c>
+      <c r="L52" s="9">
         <v>3.1670879999999998E-2</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="9">
         <v>9.7773200000000008E-3</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="A53" s="26">
         <v>5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="27">
         <v>1.572484E-2</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="27">
         <v>8.3508569999999997E-3</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="27">
         <v>1.852437E-3</v>
       </c>
-      <c r="K53" s="2">
+      <c r="E53" s="27">
+        <v>1.3579060000000001E-3</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26">
         <v>5</v>
       </c>
-      <c r="L53" s="1">
+      <c r="H53" s="27">
+        <v>3.7797759999999999E-3</v>
+      </c>
+      <c r="K53" s="8">
+        <v>5</v>
+      </c>
+      <c r="L53" s="9">
         <v>1.633333E-2</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="9">
         <v>3.9477679999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+      <c r="A54" s="26">
         <v>6</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="27">
         <v>6.0703019999999996E-3</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="27">
         <v>2.7144740000000001E-3</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="27">
         <v>3.6236519999999998E-4</v>
       </c>
-      <c r="K54" s="2">
+      <c r="E54" s="27">
+        <v>1.9575690000000001E-4</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26">
         <v>6</v>
       </c>
-      <c r="L54" s="1">
+      <c r="H54" s="27">
+        <v>7.4429270000000004E-4</v>
+      </c>
+      <c r="K54" s="8">
+        <v>6</v>
+      </c>
+      <c r="L54" s="9">
         <v>5.891047E-3</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="9">
         <v>8.1473750000000001E-4</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+      <c r="A55" s="26">
         <v>7</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="27">
         <v>2.0303880000000002E-3</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="27">
         <v>5.1103740000000002E-4</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="27">
         <v>3.2281969999999998E-5</v>
       </c>
-      <c r="K55" s="2">
+      <c r="E55" s="27">
+        <v>2.1161809999999999E-5</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26">
         <v>7</v>
       </c>
-      <c r="L55" s="1">
+      <c r="H55" s="27">
+        <v>1.016885E-4</v>
+      </c>
+      <c r="K55" s="8">
+        <v>7</v>
+      </c>
+      <c r="L55" s="9">
         <v>1.93848E-3</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="9">
         <v>1.5765080000000001E-4</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="A56" s="26">
         <v>8</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="27">
         <v>4.160503E-4</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="27">
         <v>7.2269039999999998E-5</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="27">
         <v>1.9812289999999999E-6</v>
       </c>
-      <c r="K56" s="2">
+      <c r="E56" s="27">
+        <v>1.1419930000000001E-6</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="H56" s="27">
+        <v>2.886763E-5</v>
+      </c>
+      <c r="K56" s="8">
         <v>8</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="9">
         <v>4.1422699999999998E-4</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="9">
         <v>1.927504E-5</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+      <c r="A57" s="26">
         <v>9</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="27">
         <v>8.7662390000000002E-5</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="27">
         <v>4.2797589999999996E-6</v>
       </c>
-      <c r="K57" s="2">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26">
+        <v>8</v>
+      </c>
+      <c r="H57" s="27">
+        <v>6.8800269999999999E-6</v>
+      </c>
+      <c r="K57" s="8">
         <v>9</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="9">
         <v>8.2988899999999994E-5</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="9">
         <v>1.28853E-6</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="A58" s="26">
         <v>10</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="27">
         <v>8.0660970000000007E-6</v>
       </c>
-      <c r="L58" s="1">
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26">
+        <v>9</v>
+      </c>
+      <c r="H58" s="27">
+        <v>1.972448E-6</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="9">
         <v>9.0999739999999998E-6</v>
       </c>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <v>-4</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.2815897</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F64" s="3"/>
+      <c r="A64" s="8">
+        <v>-3</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0.2456468</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F65" s="3"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>-2</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.214922</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F66" s="3"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <v>-1</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0.18120159999999999</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F67" s="3"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <v>0</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0.1391221</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F68" s="3"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <v>1</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0.11024100000000001</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="3"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <v>2</v>
+      </c>
+      <c r="B69" s="9">
+        <v>7.3942380000000002E-2</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F70" s="3"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <v>3</v>
+      </c>
+      <c r="B70" s="9">
+        <v>3.753198E-2</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F71" s="3"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <v>4</v>
+      </c>
+      <c r="B71" s="9">
+        <v>1.981364E-2</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F72" s="3"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <v>5</v>
+      </c>
+      <c r="B72" s="9">
+        <v>6.9245260000000003E-3</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="1"/>
-      <c r="F73" s="3"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <v>6</v>
+      </c>
+      <c r="B73" s="9">
+        <v>1.8797600000000001E-3</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F74" s="3"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <v>7</v>
+      </c>
+      <c r="B74" s="9">
+        <v>3.5267000000000002E-4</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F75" s="3"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="B75" s="9">
+        <v>1.24349E-4</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F76" s="3"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <v>8</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="8">
+        <v>9</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="8">
+        <v>10</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="53"/>
+      <c r="D81" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="53"/>
+      <c r="F81" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="45"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <v>-4</v>
+      </c>
+      <c r="B82" s="17">
+        <v>0.35529889999999997</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="21">
+        <v>0.31518990000000002</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20">
+        <v>0.30587120000000001</v>
+      </c>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <v>-3</v>
+      </c>
+      <c r="B83" s="18">
+        <v>0.33458650000000001</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="21">
+        <v>0.27125850000000001</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20">
+        <v>0.2600325</v>
+      </c>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <v>-2</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0.26391809999999999</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="21">
+        <v>0.2382813</v>
+      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20">
+        <v>0.22189919999999999</v>
+      </c>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <v>-1</v>
+      </c>
+      <c r="B85" s="18">
+        <v>0.24475</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="21">
+        <v>0.19965579999999999</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20">
+        <v>0.1866749</v>
+      </c>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="8">
+        <v>0</v>
+      </c>
+      <c r="B86" s="18">
+        <v>0.1803728</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="21">
+        <v>0.15423780000000001</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20">
+        <v>0.12077889999999999</v>
+      </c>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <v>1</v>
+      </c>
+      <c r="B87" s="18">
+        <v>0.1364379</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="21">
+        <v>0.10359359999999999</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20">
+        <v>7.7157080000000003E-2</v>
+      </c>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="8">
+        <v>2</v>
+      </c>
+      <c r="B88" s="18">
+        <v>8.3776600000000007E-2</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="21">
+        <v>6.6940689999999997E-2</v>
+      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20">
+        <v>4.1316110000000003E-2</v>
+      </c>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="8">
+        <v>3</v>
+      </c>
+      <c r="B89" s="18">
+        <v>4.3468390000000003E-2</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="21">
+        <v>3.5691769999999998E-2</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20">
+        <v>2.282876E-2</v>
+      </c>
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="8">
+        <v>4</v>
+      </c>
+      <c r="B90" s="18">
+        <v>1.8913289999999999E-2</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="21">
+        <v>1.392331E-2</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20">
+        <v>7.8795730000000008E-3</v>
+      </c>
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <v>5</v>
+      </c>
+      <c r="B91" s="18">
+        <v>6.4291009999999996E-3</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="21">
+        <v>3.9099440000000003E-3</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20">
+        <v>2.1777490000000001E-3</v>
+      </c>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="8">
+        <v>6</v>
+      </c>
+      <c r="B92" s="18">
+        <v>1.3675989999999999E-3</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="21">
+        <v>7.7469609999999999E-4</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20">
+        <v>4.1311620000000001E-4</v>
+      </c>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <v>7</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1.5572369999999999E-4</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="21">
+        <v>9.049568E-5</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20">
+        <v>3.9998459999999997E-5</v>
+      </c>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="8">
+        <v>8</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1.1312169999999999E-5</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="21">
+        <v>5.9688999999999997E-6</v>
+      </c>
+      <c r="E94" s="19"/>
+      <c r="F94" s="21">
+        <v>2.4770000000000002E-6</v>
+      </c>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <v>9</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <v>10</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A100" s="29"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A118" s="29"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A126" s="29"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A130" s="29"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A135" s="22"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="I118:K118"/>
     <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="I100:K100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
